--- a/autoRally_platform_parts_list.xlsx
+++ b/autoRally_platform_parts_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="603">
   <si>
     <t>AutoRally Platform Parts List</t>
   </si>
@@ -128,9 +128,6 @@
     <t>http://www.savoxusa.com/Glitch_Buster_Power_Capacitor_p/rce2474.htm</t>
   </si>
   <si>
-    <t>Work Stand</t>
-  </si>
-  <si>
     <t>https://rc-car-online.de/en/products/y0132-y0132-linkage-rod-for-mecatech-brakes-2-pcs-.html</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>Gamepad</t>
   </si>
   <si>
-    <t>8" P4 extension cable</t>
-  </si>
-  <si>
     <t>Wifi antenna pair 2.4/5.8 ghz</t>
   </si>
   <si>
@@ -749,9 +743,6 @@
     <t>Laptop for Operator Control Station (OCS)</t>
   </si>
   <si>
-    <t>Computer Monitor for platform</t>
-  </si>
-  <si>
     <t>Wireless keyboard/mouse</t>
   </si>
   <si>
@@ -1227,9 +1218,6 @@
   </si>
   <si>
     <t>Heat shrink tube, assorted sizes and colors</t>
-  </si>
-  <si>
-    <t>100' 12-pin cable, 24 awg stranded wire</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/alpha-wire/1219-12C-SL005/A1219-12C-100-ND/3702047</t>
@@ -1500,9 +1488,6 @@
     <t>https://www.pjrc.com/store/teensylc_pins.html</t>
   </si>
   <si>
-    <t>Teensy 3.6</t>
-  </si>
-  <si>
     <t>https://www.pjrc.com/store/teensy36_pins.html</t>
   </si>
   <si>
@@ -1518,24 +1503,12 @@
     <t>https://www.mcmaster.com/#8589k22/=1b53vt2</t>
   </si>
   <si>
-    <t>http://www.gomeyer.com/rc-cars-scooters/hpi-baja-luna-baja-stand-p-691.html</t>
-  </si>
-  <si>
-    <t>Go Meyer HPI Baja Luna Stand</t>
-  </si>
-  <si>
     <t>0-8" range</t>
   </si>
   <si>
     <t>https://www.amazon.com/Neiko-01408A-Electronic-Digital-Caliper/dp/B000NEA0P8/</t>
   </si>
   <si>
-    <t>Breadboard</t>
-  </si>
-  <si>
-    <t>2"x3" through hole solder</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/vector-electronics/8029/V2025-ND/1886431</t>
   </si>
   <si>
@@ -1825,6 +1798,42 @@
   </si>
   <si>
     <t>Hemisphere R330 power cable, 3 meters</t>
+  </si>
+  <si>
+    <t>Buzzer, 5V</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/1536</t>
+  </si>
+  <si>
+    <t>M3x8mm aluminum spacer, 6mm OD</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#94669a011</t>
+  </si>
+  <si>
+    <t>Computer Monitor</t>
+  </si>
+  <si>
+    <t>for compute box, 27 inch QHD w/ HDMI input</t>
+  </si>
+  <si>
+    <t>8 inch P4 extension cable</t>
+  </si>
+  <si>
+    <t>100' 12-conductor cable, 24 awg stranded wire</t>
+  </si>
+  <si>
+    <t>Breadboard, 2"x3" through hole solder</t>
+  </si>
+  <si>
+    <t>Only needed if using Teensy 3.6 in electronics box</t>
+  </si>
+  <si>
+    <t>Only needed if Arduino Due is nto available electronics box</t>
+  </si>
+  <si>
+    <t>Teensy 3.6, for electronics box</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2280,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2843,6 +2852,98 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="15" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="15" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2860,93 +2961,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="15" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="15" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3339,8 +3353,8 @@
   </sheetPr>
   <dimension ref="A1:O343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3358,19 +3372,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="220" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="220"/>
-      <c r="F1" s="221">
-        <v>43132</v>
-      </c>
-      <c r="G1" s="221"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="252"/>
+      <c r="F1" s="253">
+        <v>43160</v>
+      </c>
+      <c r="G1" s="253"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3386,64 +3400,64 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="222" t="s">
-        <v>466</v>
-      </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
+      <c r="A3" s="254" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
     </row>
     <row r="4" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="241" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="243"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="241" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="243"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="241" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="248" t="s">
         <v>481</v>
       </c>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="227"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="225" t="s">
-        <v>482</v>
-      </c>
-      <c r="B5" s="226"/>
-      <c r="C5" s="226"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="227"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="225" t="s">
-        <v>484</v>
-      </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="227"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="232" t="s">
-        <v>485</v>
-      </c>
-      <c r="B7" s="233"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="234"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250"/>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
@@ -3456,16 +3470,16 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="228" t="s">
-        <v>483</v>
-      </c>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
+      <c r="A9" s="244" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
@@ -3492,7 +3506,7 @@
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="206" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -3504,7 +3518,7 @@
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="18" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -3516,7 +3530,7 @@
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="189" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="13"/>
@@ -3528,7 +3542,7 @@
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="20" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="13"/>
@@ -3563,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>4</v>
@@ -3582,14 +3596,14 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="229" t="s">
+      <c r="A19" s="245" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D19" s="80">
         <v>1280</v>
@@ -3608,12 +3622,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="229"/>
+      <c r="A20" s="245"/>
       <c r="B20" s="78" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D20" s="80">
         <v>279.99</v>
@@ -3627,16 +3641,16 @@
       </c>
       <c r="G20" s="81"/>
       <c r="H20" s="82" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="229"/>
+      <c r="A21" s="245"/>
       <c r="B21" s="78" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D21" s="80">
         <v>34.99</v>
@@ -3650,16 +3664,16 @@
       </c>
       <c r="G21" s="81"/>
       <c r="H21" s="82" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="229"/>
+      <c r="A22" s="245"/>
       <c r="B22" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D22" s="80">
         <v>49.99</v>
@@ -3678,12 +3692,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="229"/>
+      <c r="A23" s="245"/>
       <c r="B23" s="78" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D23" s="80">
         <v>89.99</v>
@@ -3697,16 +3711,16 @@
       </c>
       <c r="G23" s="81"/>
       <c r="H23" s="82" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="229"/>
+      <c r="A24" s="245"/>
       <c r="B24" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D24" s="80">
         <v>59.99</v>
@@ -3725,12 +3739,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="229"/>
+      <c r="A25" s="245"/>
       <c r="B25" s="78" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D25" s="80">
         <v>329</v>
@@ -3748,12 +3762,12 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="229"/>
+      <c r="A26" s="245"/>
       <c r="B26" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D26" s="80">
         <v>44.99</v>
@@ -3772,12 +3786,12 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="229"/>
+      <c r="A27" s="245"/>
       <c r="B27" s="78" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D27" s="80">
         <v>44.99</v>
@@ -3796,12 +3810,12 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="229"/>
+      <c r="A28" s="245"/>
       <c r="B28" s="78" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D28" s="80">
         <v>9.99</v>
@@ -3819,12 +3833,12 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="229"/>
+      <c r="A29" s="245"/>
       <c r="B29" s="78" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D29" s="80">
         <v>19.989999999999998</v>
@@ -3838,16 +3852,16 @@
       </c>
       <c r="G29" s="81"/>
       <c r="H29" s="82" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="229"/>
+      <c r="A30" s="245"/>
       <c r="B30" s="78" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="80">
         <v>1.95</v>
@@ -3865,12 +3879,12 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="229"/>
+      <c r="A31" s="245"/>
       <c r="B31" s="78" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="80">
         <v>1.95</v>
@@ -3888,12 +3902,12 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="229"/>
+      <c r="A32" s="245"/>
       <c r="B32" s="78" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C32" s="146" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D32" s="80">
         <v>3.99</v>
@@ -3912,12 +3926,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="229"/>
+      <c r="A33" s="245"/>
       <c r="B33" s="78" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D33" s="80">
         <v>5.99</v>
@@ -3936,12 +3950,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="229"/>
+      <c r="A34" s="245"/>
       <c r="B34" s="177" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="178" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D34" s="179">
         <v>49.49</v>
@@ -3959,12 +3973,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="229"/>
+      <c r="A35" s="245"/>
       <c r="B35" s="177" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="177" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D35" s="179">
         <v>7.5</v>
@@ -3982,12 +3996,12 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="229"/>
+      <c r="A36" s="245"/>
       <c r="B36" s="177" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="178" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D36" s="179">
         <v>11.99</v>
@@ -4006,12 +4020,12 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="229"/>
+      <c r="A37" s="245"/>
       <c r="B37" s="177" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="178" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D37" s="179">
         <v>9.99</v>
@@ -4030,12 +4044,12 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="229"/>
+      <c r="A38" s="245"/>
       <c r="B38" s="177" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="178" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D38" s="179">
         <v>6.3</v>
@@ -4054,12 +4068,12 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="229"/>
+      <c r="A39" s="245"/>
       <c r="B39" s="177" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C39" s="178" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D39" s="179">
         <v>16.989999999999998</v>
@@ -4078,12 +4092,12 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="229"/>
+      <c r="A40" s="245"/>
       <c r="B40" s="177" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D40" s="179">
         <v>41</v>
@@ -4102,12 +4116,12 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="229"/>
+      <c r="A41" s="245"/>
       <c r="B41" s="177" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="178" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D41" s="179">
         <v>17</v>
@@ -4125,12 +4139,12 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="229"/>
+      <c r="A42" s="245"/>
       <c r="B42" s="177" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C42" s="178" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D42" s="179">
         <v>62.99</v>
@@ -4144,19 +4158,19 @@
       </c>
       <c r="G42" s="180"/>
       <c r="H42" s="181" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="229"/>
+      <c r="A43" s="245"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="229"/>
+      <c r="A44" s="245"/>
       <c r="B44" s="78" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C44" s="79" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D44" s="80">
         <v>85.99</v>
@@ -4175,12 +4189,12 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="229"/>
+      <c r="A45" s="245"/>
       <c r="B45" s="78" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C45" s="79" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D45" s="80">
         <v>79.989999999999995</v>
@@ -4199,12 +4213,12 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="229"/>
+      <c r="A46" s="245"/>
       <c r="B46" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="79" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D46" s="80">
         <v>5.99</v>
@@ -4222,7 +4236,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="229"/>
+      <c r="A47" s="245"/>
       <c r="B47" s="78"/>
       <c r="C47" s="79"/>
       <c r="D47" s="80"/>
@@ -4232,12 +4246,12 @@
       <c r="H47" s="82"/>
     </row>
     <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="229"/>
+      <c r="A48" s="245"/>
       <c r="B48" s="78" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C48" s="79" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D48" s="80">
         <v>99.99</v>
@@ -4251,11 +4265,11 @@
       </c>
       <c r="G48" s="81"/>
       <c r="H48" s="82" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="229"/>
+      <c r="A49" s="245"/>
       <c r="B49" s="78"/>
       <c r="C49" s="79"/>
       <c r="D49" s="80"/>
@@ -4265,1328 +4279,1337 @@
       <c r="H49" s="82"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="229"/>
+      <c r="A50" s="245"/>
       <c r="B50" s="78" t="s">
-        <v>34</v>
+        <v>489</v>
       </c>
       <c r="C50" s="79" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="D50" s="80">
-        <v>79.989999999999995</v>
+        <v>7.99</v>
       </c>
       <c r="E50" s="79">
         <v>1</v>
       </c>
       <c r="F50" s="80">
-        <f t="shared" ref="F50:F53" si="1">D50*E50</f>
-        <v>79.989999999999995</v>
+        <f t="shared" ref="F50:F51" si="1">D50*E50</f>
+        <v>7.99</v>
       </c>
       <c r="G50" s="81"/>
       <c r="H50" s="82" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="229"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="82"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="229"/>
-      <c r="B52" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="C52" s="79" t="s">
-        <v>539</v>
-      </c>
-      <c r="D52" s="80">
-        <v>7.99</v>
-      </c>
-      <c r="E52" s="79">
-        <v>1</v>
-      </c>
-      <c r="F52" s="80">
-        <f t="shared" si="1"/>
-        <v>7.99</v>
-      </c>
-      <c r="G52" s="81"/>
-      <c r="H52" s="82" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="229"/>
-      <c r="B53" s="78" t="s">
-        <v>520</v>
-      </c>
-      <c r="C53" s="79" t="s">
-        <v>521</v>
-      </c>
-      <c r="D53" s="80">
+      <c r="A51" s="245"/>
+      <c r="B51" s="78" t="s">
+        <v>511</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>512</v>
+      </c>
+      <c r="D51" s="80">
         <v>4.34</v>
       </c>
-      <c r="E53" s="79">
-        <v>1</v>
-      </c>
-      <c r="F53" s="80">
+      <c r="E51" s="79">
+        <v>1</v>
+      </c>
+      <c r="F51" s="80">
         <f t="shared" si="1"/>
         <v>4.34</v>
       </c>
+      <c r="G51" s="81"/>
+      <c r="H51" s="82" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="245"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="82"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="245"/>
+      <c r="B53" s="78" t="s">
+        <v>463</v>
+      </c>
+      <c r="C53" s="79" t="s">
+        <v>465</v>
+      </c>
+      <c r="D53" s="80">
+        <v>34.99</v>
+      </c>
+      <c r="E53" s="79">
+        <v>1</v>
+      </c>
+      <c r="F53" s="80">
+        <f t="shared" ref="F53:F54" si="2">D53*E53</f>
+        <v>34.99</v>
+      </c>
       <c r="G53" s="81"/>
       <c r="H53" s="82" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="229"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="82"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="229"/>
-      <c r="B55" s="78" t="s">
-        <v>467</v>
-      </c>
-      <c r="C55" s="79" t="s">
-        <v>469</v>
-      </c>
-      <c r="D55" s="80">
-        <v>34.99</v>
-      </c>
-      <c r="E55" s="79">
-        <v>1</v>
-      </c>
-      <c r="F55" s="80">
-        <f t="shared" ref="F55:F56" si="2">D55*E55</f>
-        <v>34.99</v>
-      </c>
-      <c r="G55" s="81"/>
-      <c r="H55" s="82" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="229"/>
-      <c r="B56" s="78" t="s">
-        <v>334</v>
-      </c>
-      <c r="C56" s="79" t="s">
-        <v>510</v>
-      </c>
-      <c r="D56" s="80">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="245"/>
+      <c r="B54" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="D54" s="80">
         <v>4.49</v>
       </c>
-      <c r="E56" s="79">
+      <c r="E54" s="79">
         <v>4</v>
       </c>
-      <c r="F56" s="80">
+      <c r="F54" s="80">
         <f t="shared" si="2"/>
         <v>17.96</v>
       </c>
+      <c r="G54" s="81"/>
+      <c r="H54" s="149" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="245"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="94"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="245"/>
+      <c r="B56" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C56" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="D56" s="80">
+        <v>5.23</v>
+      </c>
+      <c r="E56" s="79">
+        <v>1</v>
+      </c>
+      <c r="F56" s="80">
+        <f>D56*E56</f>
+        <v>5.23</v>
+      </c>
       <c r="G56" s="81"/>
-      <c r="H56" s="149" t="s">
-        <v>511</v>
+      <c r="H56" s="82" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="229"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="94"/>
+      <c r="A57" s="245"/>
+      <c r="B57" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="D57" s="80">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E57" s="79">
+        <v>1</v>
+      </c>
+      <c r="F57" s="80">
+        <f>D57*E57</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G57" s="81"/>
+      <c r="H57" s="82" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="229"/>
+      <c r="A58" s="245"/>
       <c r="B58" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="79" t="s">
         <v>345</v>
       </c>
-      <c r="C58" s="147" t="s">
-        <v>346</v>
-      </c>
       <c r="D58" s="80">
-        <v>5.23</v>
+        <v>5.87</v>
       </c>
       <c r="E58" s="79">
         <v>1</v>
       </c>
       <c r="F58" s="80">
         <f>D58*E58</f>
-        <v>5.23</v>
+        <v>5.87</v>
       </c>
       <c r="G58" s="81"/>
       <c r="H58" s="82" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="229"/>
+      <c r="A59" s="245"/>
       <c r="B59" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="79" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="C59" s="147" t="s">
+        <v>349</v>
       </c>
       <c r="D59" s="80">
-        <v>4.4800000000000004</v>
+        <v>5.98</v>
       </c>
       <c r="E59" s="79">
         <v>1</v>
       </c>
       <c r="F59" s="80">
         <f>D59*E59</f>
-        <v>4.4800000000000004</v>
+        <v>5.98</v>
       </c>
       <c r="G59" s="81"/>
       <c r="H59" s="82" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="229"/>
+      <c r="A60" s="245"/>
       <c r="B60" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="79" t="s">
-        <v>348</v>
+        <v>340</v>
+      </c>
+      <c r="C60" s="147" t="s">
+        <v>346</v>
       </c>
       <c r="D60" s="80">
-        <v>5.87</v>
+        <v>10.85</v>
       </c>
       <c r="E60" s="79">
         <v>1</v>
       </c>
       <c r="F60" s="80">
         <f>D60*E60</f>
-        <v>5.87</v>
+        <v>10.85</v>
       </c>
       <c r="G60" s="81"/>
       <c r="H60" s="82" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="245"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="88"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="245"/>
+      <c r="B62" s="78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="229"/>
-      <c r="B61" s="78" t="s">
-        <v>351</v>
-      </c>
-      <c r="C61" s="147" t="s">
-        <v>352</v>
-      </c>
-      <c r="D61" s="80">
-        <v>5.98</v>
-      </c>
-      <c r="E61" s="79">
-        <v>1</v>
-      </c>
-      <c r="F61" s="80">
-        <f>D61*E61</f>
-        <v>5.98</v>
-      </c>
-      <c r="G61" s="81"/>
-      <c r="H61" s="82" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="229"/>
-      <c r="B62" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="C62" s="147" t="s">
-        <v>349</v>
-      </c>
+      <c r="C62" s="79"/>
       <c r="D62" s="80">
-        <v>10.85</v>
+        <v>5.53</v>
       </c>
       <c r="E62" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="80">
         <f>D62*E62</f>
-        <v>10.85</v>
+        <v>11.06</v>
       </c>
       <c r="G62" s="81"/>
       <c r="H62" s="82" t="s">
-        <v>350</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="229"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="88"/>
+      <c r="A63" s="245"/>
+      <c r="B63" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="79"/>
+      <c r="D63" s="80">
+        <v>7.83</v>
+      </c>
+      <c r="E63" s="83">
+        <v>2</v>
+      </c>
+      <c r="F63" s="80">
+        <f>D63*E63</f>
+        <v>15.66</v>
+      </c>
+      <c r="G63" s="81"/>
+      <c r="H63" s="96" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="229"/>
-      <c r="B64" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="80">
-        <v>5.53</v>
-      </c>
-      <c r="E64" s="79">
-        <v>2</v>
-      </c>
-      <c r="F64" s="80">
-        <f>D64*E64</f>
-        <v>11.06</v>
-      </c>
-      <c r="G64" s="81"/>
-      <c r="H64" s="82" t="s">
-        <v>41</v>
-      </c>
+      <c r="A64" s="245"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="229"/>
+      <c r="A65" s="245"/>
       <c r="B65" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="79"/>
+        <v>302</v>
+      </c>
+      <c r="C65" s="79" t="s">
+        <v>303</v>
+      </c>
       <c r="D65" s="80">
-        <v>7.83</v>
-      </c>
-      <c r="E65" s="83">
-        <v>2</v>
+        <v>403.71</v>
+      </c>
+      <c r="E65" s="176">
+        <v>1</v>
       </c>
       <c r="F65" s="80">
         <f>D65*E65</f>
-        <v>15.66</v>
-      </c>
-      <c r="G65" s="81"/>
-      <c r="H65" s="96" t="s">
+        <v>403.71</v>
+      </c>
+      <c r="G65" s="176"/>
+      <c r="H65" s="149" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="245"/>
+      <c r="B66" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80">
+        <v>90</v>
+      </c>
+      <c r="E66" s="79">
+        <v>1</v>
+      </c>
+      <c r="F66" s="80">
+        <f>D66*E66</f>
+        <v>90</v>
+      </c>
+      <c r="G66" s="81"/>
+      <c r="H66" s="82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="245"/>
+      <c r="B67" s="177" t="s">
+        <v>351</v>
+      </c>
+      <c r="C67" s="178" t="s">
+        <v>352</v>
+      </c>
+      <c r="D67" s="179">
+        <v>12.07</v>
+      </c>
+      <c r="E67" s="178">
+        <v>2</v>
+      </c>
+      <c r="F67" s="179">
+        <f>D67*E67</f>
+        <v>24.14</v>
+      </c>
+      <c r="G67" s="180"/>
+      <c r="H67" s="181" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="229"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="229"/>
-      <c r="B67" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="C67" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="D67" s="80">
-        <v>403.71</v>
-      </c>
-      <c r="E67" s="176">
-        <v>1</v>
-      </c>
-      <c r="F67" s="80">
-        <f>D67*E67</f>
-        <v>403.71</v>
-      </c>
-      <c r="G67" s="176"/>
-      <c r="H67" s="149" t="s">
-        <v>361</v>
-      </c>
-    </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="229"/>
-      <c r="B68" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="80">
-        <v>90</v>
-      </c>
-      <c r="E68" s="79">
-        <v>1</v>
-      </c>
-      <c r="F68" s="80">
+      <c r="A68" s="245"/>
+      <c r="B68" s="177" t="s">
+        <v>353</v>
+      </c>
+      <c r="C68" s="178" t="s">
+        <v>354</v>
+      </c>
+      <c r="D68" s="179">
+        <v>193.76</v>
+      </c>
+      <c r="E68" s="178">
+        <v>1</v>
+      </c>
+      <c r="F68" s="179">
         <f>D68*E68</f>
-        <v>90</v>
-      </c>
-      <c r="G68" s="81"/>
-      <c r="H68" s="82" t="s">
+        <v>193.76</v>
+      </c>
+      <c r="G68" s="180"/>
+      <c r="H68" s="181" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="229"/>
-      <c r="B69" s="177" t="s">
-        <v>354</v>
-      </c>
-      <c r="C69" s="178" t="s">
-        <v>355</v>
-      </c>
-      <c r="D69" s="179">
-        <v>12.07</v>
-      </c>
-      <c r="E69" s="178">
-        <v>2</v>
-      </c>
-      <c r="F69" s="179">
-        <f>D69*E69</f>
-        <v>24.14</v>
-      </c>
-      <c r="G69" s="180"/>
-      <c r="H69" s="181" t="s">
-        <v>44</v>
-      </c>
+      <c r="A69" s="245"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="88"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="229"/>
-      <c r="B70" s="177" t="s">
-        <v>356</v>
-      </c>
-      <c r="C70" s="178" t="s">
-        <v>357</v>
-      </c>
-      <c r="D70" s="179">
-        <v>193.76</v>
-      </c>
-      <c r="E70" s="178">
-        <v>1</v>
-      </c>
-      <c r="F70" s="179">
-        <f>D70*E70</f>
-        <v>193.76</v>
-      </c>
-      <c r="G70" s="180"/>
-      <c r="H70" s="181" t="s">
+      <c r="A70" s="245"/>
+      <c r="B70" s="78" t="s">
         <v>47</v>
       </c>
+      <c r="C70" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="80">
+        <v>7.8</v>
+      </c>
+      <c r="E70" s="79">
+        <v>1</v>
+      </c>
+      <c r="F70" s="80">
+        <f t="shared" ref="F70:F107" si="3">D70*E70</f>
+        <v>7.8</v>
+      </c>
+      <c r="G70" s="81"/>
+      <c r="H70" s="82" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="229"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="88"/>
+      <c r="A71" s="245"/>
+      <c r="B71" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="79"/>
+      <c r="D71" s="80">
+        <v>2.4</v>
+      </c>
+      <c r="E71" s="79">
+        <v>4</v>
+      </c>
+      <c r="F71" s="80">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="G71" s="81"/>
+      <c r="H71" s="82" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="229"/>
+      <c r="A72" s="245"/>
       <c r="B72" s="78" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C72" s="79" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D72" s="80">
-        <v>7.8</v>
+        <v>2.84</v>
       </c>
       <c r="E72" s="79">
         <v>1</v>
       </c>
       <c r="F72" s="80">
-        <f t="shared" ref="F72:F108" si="3">D72*E72</f>
-        <v>7.8</v>
+        <f t="shared" si="3"/>
+        <v>2.84</v>
       </c>
       <c r="G72" s="81"/>
       <c r="H72" s="82" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="229"/>
+      <c r="A73" s="245"/>
       <c r="B73" s="78" t="s">
-        <v>51</v>
+        <v>576</v>
       </c>
       <c r="C73" s="79"/>
       <c r="D73" s="80">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="E73" s="79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F73" s="80">
         <f t="shared" si="3"/>
-        <v>9.6</v>
+        <v>10.32</v>
       </c>
       <c r="G73" s="81"/>
       <c r="H73" s="82" t="s">
-        <v>52</v>
+        <v>577</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="229"/>
+      <c r="A74" s="245"/>
       <c r="B74" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="79" t="s">
-        <v>54</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="C74" s="79"/>
       <c r="D74" s="80">
-        <v>2.84</v>
+        <v>0.3</v>
       </c>
       <c r="E74" s="79">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" s="80">
         <f t="shared" si="3"/>
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="G74" s="81"/>
       <c r="H74" s="82" t="s">
-        <v>55</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="229"/>
+      <c r="A75" s="245"/>
       <c r="B75" s="78" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="C75" s="79"/>
       <c r="D75" s="80">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="E75" s="79">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F75" s="80">
         <f t="shared" si="3"/>
-        <v>10.32</v>
+        <v>13.3</v>
       </c>
       <c r="G75" s="81"/>
       <c r="H75" s="82" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="229"/>
-      <c r="B76" s="78" t="s">
-        <v>548</v>
-      </c>
-      <c r="C76" s="79"/>
-      <c r="D76" s="80">
-        <v>0.3</v>
-      </c>
-      <c r="E76" s="79">
-        <v>10</v>
-      </c>
-      <c r="F76" s="80">
+      <c r="A76" s="245"/>
+      <c r="B76" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="99">
+        <v>2.06</v>
+      </c>
+      <c r="E76" s="98">
+        <v>2</v>
+      </c>
+      <c r="F76" s="99">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G76" s="81"/>
-      <c r="H76" s="82" t="s">
-        <v>547</v>
+        <v>4.12</v>
+      </c>
+      <c r="G76" s="100"/>
+      <c r="H76" s="101" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="229"/>
+      <c r="A77" s="245"/>
       <c r="B77" s="97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C77" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77" s="99">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="E77" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="99">
         <f t="shared" si="3"/>
-        <v>4.12</v>
+        <v>1.62</v>
       </c>
       <c r="G77" s="100"/>
       <c r="H77" s="101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="229"/>
+      <c r="A78" s="245"/>
       <c r="B78" s="97" t="s">
-        <v>58</v>
+        <v>550</v>
       </c>
       <c r="C78" s="98" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D78" s="99">
-        <v>1.62</v>
+        <v>8.48</v>
       </c>
       <c r="E78" s="98">
         <v>1</v>
       </c>
       <c r="F78" s="99">
         <f t="shared" si="3"/>
-        <v>1.62</v>
+        <v>8.48</v>
       </c>
       <c r="G78" s="100"/>
       <c r="H78" s="101" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="245"/>
+      <c r="B79" s="102" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="229"/>
-      <c r="B79" s="97" t="s">
-        <v>559</v>
-      </c>
-      <c r="C79" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="99">
-        <v>8.48</v>
-      </c>
-      <c r="E79" s="98">
+      <c r="C79" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="104">
+        <v>8.56</v>
+      </c>
+      <c r="E79" s="103">
         <v>1</v>
       </c>
       <c r="F79" s="99">
         <f t="shared" si="3"/>
-        <v>8.48</v>
-      </c>
-      <c r="G79" s="100"/>
-      <c r="H79" s="101" t="s">
-        <v>560</v>
+        <v>8.56</v>
+      </c>
+      <c r="G79" s="103"/>
+      <c r="H79" s="105" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="229"/>
-      <c r="B80" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="104">
-        <v>8.56</v>
-      </c>
-      <c r="E80" s="103">
+      <c r="A80" s="245"/>
+      <c r="B80" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="99">
+        <v>6.58</v>
+      </c>
+      <c r="E80" s="98">
         <v>1</v>
       </c>
       <c r="F80" s="99">
         <f t="shared" si="3"/>
-        <v>8.56</v>
-      </c>
-      <c r="G80" s="103"/>
-      <c r="H80" s="105" t="s">
-        <v>61</v>
+        <v>6.58</v>
+      </c>
+      <c r="G80" s="100"/>
+      <c r="H80" s="101" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="229"/>
+      <c r="A81" s="245"/>
       <c r="B81" s="97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="99">
-        <v>6.58</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E81" s="98">
         <v>1</v>
       </c>
       <c r="F81" s="99">
         <f t="shared" si="3"/>
-        <v>6.58</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G81" s="100"/>
       <c r="H81" s="101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="229"/>
+      <c r="A82" s="245"/>
       <c r="B82" s="97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C82" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D82" s="99">
-        <v>4.4000000000000004</v>
+        <v>7.75</v>
       </c>
       <c r="E82" s="98">
         <v>1</v>
       </c>
       <c r="F82" s="99">
         <f t="shared" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>7.75</v>
       </c>
       <c r="G82" s="100"/>
       <c r="H82" s="101" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="229"/>
+      <c r="A83" s="245"/>
       <c r="B83" s="97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C83" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="99">
-        <v>7.75</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E83" s="98">
         <v>1</v>
       </c>
       <c r="F83" s="99">
         <f t="shared" si="3"/>
-        <v>7.75</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G83" s="100"/>
       <c r="H83" s="101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="229"/>
+      <c r="A84" s="245"/>
       <c r="B84" s="97" t="s">
-        <v>68</v>
+        <v>544</v>
       </c>
       <c r="C84" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D84" s="99">
-        <v>8.1999999999999993</v>
+        <v>6.18</v>
       </c>
       <c r="E84" s="98">
         <v>1</v>
       </c>
       <c r="F84" s="99">
         <f t="shared" si="3"/>
-        <v>8.1999999999999993</v>
+        <v>6.18</v>
       </c>
       <c r="G84" s="100"/>
       <c r="H84" s="101" t="s">
-        <v>69</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="229"/>
+      <c r="A85" s="245"/>
       <c r="B85" s="97" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C85" s="98" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D85" s="99">
-        <v>6.18</v>
+        <v>4.8</v>
       </c>
       <c r="E85" s="98">
         <v>1</v>
       </c>
       <c r="F85" s="99">
         <f t="shared" si="3"/>
-        <v>6.18</v>
+        <v>4.8</v>
       </c>
       <c r="G85" s="100"/>
       <c r="H85" s="101" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="229"/>
-      <c r="B86" s="97" t="s">
-        <v>549</v>
-      </c>
-      <c r="C86" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="99">
-        <v>4.8</v>
-      </c>
-      <c r="E86" s="98">
-        <v>1</v>
-      </c>
-      <c r="F86" s="99">
+      <c r="A86" s="245"/>
+      <c r="B86" s="78" t="s">
+        <v>532</v>
+      </c>
+      <c r="C86" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="80">
+        <v>3.4</v>
+      </c>
+      <c r="E86" s="79">
+        <v>1</v>
+      </c>
+      <c r="F86" s="80">
         <f t="shared" si="3"/>
-        <v>4.8</v>
-      </c>
-      <c r="G86" s="100"/>
-      <c r="H86" s="101" t="s">
-        <v>550</v>
+        <v>3.4</v>
+      </c>
+      <c r="G86" s="81"/>
+      <c r="H86" s="82" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="229"/>
+      <c r="A87" s="245"/>
       <c r="B87" s="78" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C87" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D87" s="80">
-        <v>3.4</v>
+        <v>2.39</v>
       </c>
       <c r="E87" s="79">
         <v>1</v>
       </c>
       <c r="F87" s="80">
         <f t="shared" si="3"/>
-        <v>3.4</v>
+        <v>2.39</v>
       </c>
       <c r="G87" s="81"/>
       <c r="H87" s="82" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="229"/>
+      <c r="A88" s="245"/>
       <c r="B88" s="78" t="s">
-        <v>551</v>
+        <v>70</v>
       </c>
       <c r="C88" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D88" s="80">
-        <v>2.39</v>
+        <v>3.39</v>
       </c>
       <c r="E88" s="79">
         <v>1</v>
       </c>
       <c r="F88" s="80">
         <f t="shared" si="3"/>
-        <v>2.39</v>
+        <v>3.39</v>
       </c>
       <c r="G88" s="81"/>
       <c r="H88" s="82" t="s">
-        <v>552</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="229"/>
+      <c r="A89" s="245"/>
       <c r="B89" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="79" t="s">
-        <v>72</v>
-      </c>
       <c r="D89" s="80">
-        <v>3.39</v>
+        <v>2.67</v>
       </c>
       <c r="E89" s="79">
         <v>1</v>
       </c>
       <c r="F89" s="80">
         <f t="shared" si="3"/>
-        <v>3.39</v>
+        <v>2.67</v>
       </c>
       <c r="G89" s="81"/>
       <c r="H89" s="82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="229"/>
+      <c r="A90" s="245"/>
       <c r="B90" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" s="79" t="s">
-        <v>72</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C90" s="79"/>
       <c r="D90" s="80">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="E90" s="79">
         <v>1</v>
       </c>
       <c r="F90" s="80">
         <f t="shared" si="3"/>
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="G90" s="81"/>
       <c r="H90" s="82" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="229"/>
+      <c r="A91" s="245"/>
       <c r="B91" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="79"/>
+        <v>77</v>
+      </c>
+      <c r="C91" s="79" t="s">
+        <v>78</v>
+      </c>
       <c r="D91" s="80">
-        <v>2.52</v>
+        <v>11.09</v>
       </c>
       <c r="E91" s="79">
         <v>1</v>
       </c>
       <c r="F91" s="80">
         <f t="shared" si="3"/>
-        <v>2.52</v>
+        <v>11.09</v>
       </c>
       <c r="G91" s="81"/>
-      <c r="H91" s="82" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="229"/>
-      <c r="B92" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="80">
-        <v>11.09</v>
-      </c>
-      <c r="E92" s="79">
-        <v>1</v>
-      </c>
-      <c r="F92" s="80">
-        <f t="shared" si="3"/>
-        <v>11.09</v>
-      </c>
-      <c r="G92" s="81"/>
-      <c r="H92" s="82" t="str">
+      <c r="H91" s="82" t="str">
         <f>HYPERLINK("http://www.mcmaster.com/#9657k408/=zybqrr","http://www.mcmaster.com/#9657k408/=zybqrr")</f>
         <v>http://www.mcmaster.com/#9657k408/=zybqrr</v>
       </c>
     </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="245"/>
+      <c r="B92" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="107"/>
+      <c r="D92" s="108">
+        <v>1.38</v>
+      </c>
+      <c r="E92" s="107">
+        <v>8</v>
+      </c>
+      <c r="F92" s="108">
+        <f t="shared" si="3"/>
+        <v>11.04</v>
+      </c>
+      <c r="G92" s="109"/>
+      <c r="H92" s="110" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="229"/>
+      <c r="A93" s="245"/>
       <c r="B93" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="107"/>
+        <v>81</v>
+      </c>
+      <c r="C93" s="107" t="s">
+        <v>53</v>
+      </c>
       <c r="D93" s="108">
-        <v>1.38</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E93" s="107">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F93" s="108">
         <f t="shared" si="3"/>
-        <v>11.04</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G93" s="109"/>
       <c r="H93" s="110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="229"/>
+      <c r="A94" s="245"/>
       <c r="B94" s="106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C94" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D94" s="108">
-        <v>2.2799999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="E94" s="107">
         <v>1</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="3"/>
-        <v>2.2799999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="G94" s="109"/>
       <c r="H94" s="110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="229"/>
+      <c r="A95" s="245"/>
       <c r="B95" s="106" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C95" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D95" s="108">
-        <v>1.86</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E95" s="107">
         <v>1</v>
       </c>
       <c r="F95" s="108">
         <f t="shared" si="3"/>
-        <v>1.86</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="G95" s="109"/>
       <c r="H95" s="110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="229"/>
-      <c r="B96" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="107" t="s">
-        <v>54</v>
+      <c r="A96" s="245"/>
+      <c r="B96" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="C96" s="79" t="s">
+        <v>48</v>
       </c>
       <c r="D96" s="108">
-        <v>9.5500000000000007</v>
+        <v>8.33</v>
       </c>
       <c r="E96" s="107">
         <v>1</v>
       </c>
       <c r="F96" s="108">
-        <f t="shared" si="3"/>
-        <v>9.5500000000000007</v>
+        <f>D96*E96</f>
+        <v>8.33</v>
       </c>
       <c r="G96" s="109"/>
       <c r="H96" s="110" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="245"/>
+      <c r="B97" s="106" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="229"/>
-      <c r="B97" s="78" t="s">
-        <v>533</v>
-      </c>
-      <c r="C97" s="79" t="s">
-        <v>49</v>
+      <c r="C97" s="107" t="s">
+        <v>53</v>
       </c>
       <c r="D97" s="108">
-        <v>8.33</v>
+        <v>4.05</v>
       </c>
       <c r="E97" s="107">
         <v>1</v>
       </c>
       <c r="F97" s="108">
-        <f>D97*E97</f>
-        <v>8.33</v>
+        <f t="shared" si="3"/>
+        <v>4.05</v>
       </c>
       <c r="G97" s="109"/>
       <c r="H97" s="110" t="s">
-        <v>523</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="229"/>
+      <c r="A98" s="245"/>
       <c r="B98" s="106" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C98" s="107" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D98" s="108">
-        <v>4.05</v>
+        <v>11.4</v>
       </c>
       <c r="E98" s="107">
         <v>1</v>
       </c>
       <c r="F98" s="108">
         <f t="shared" si="3"/>
-        <v>4.05</v>
+        <v>11.4</v>
       </c>
       <c r="G98" s="109"/>
       <c r="H98" s="110" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="229"/>
+      <c r="A99" s="245"/>
       <c r="B99" s="106" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C99" s="107" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D99" s="108">
-        <v>11.4</v>
+        <v>8.15</v>
       </c>
       <c r="E99" s="107">
         <v>1</v>
       </c>
       <c r="F99" s="108">
         <f t="shared" si="3"/>
-        <v>11.4</v>
+        <v>8.15</v>
       </c>
       <c r="G99" s="109"/>
       <c r="H99" s="110" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="229"/>
-      <c r="B100" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="108">
+      <c r="A100" s="245"/>
+      <c r="B100" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="113">
+        <v>7.52</v>
+      </c>
+      <c r="E100" s="112">
+        <v>1</v>
+      </c>
+      <c r="F100" s="113">
+        <f t="shared" si="3"/>
+        <v>7.52</v>
+      </c>
+      <c r="G100" s="112"/>
+      <c r="H100" s="114" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="245"/>
+      <c r="B101" s="207" t="s">
+        <v>356</v>
+      </c>
+      <c r="C101" s="208" t="s">
+        <v>357</v>
+      </c>
+      <c r="D101" s="209">
+        <v>3.33</v>
+      </c>
+      <c r="E101" s="208">
+        <v>1</v>
+      </c>
+      <c r="F101" s="209">
+        <f t="shared" si="3"/>
+        <v>3.33</v>
+      </c>
+      <c r="G101" s="208"/>
+      <c r="H101" s="210" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="245"/>
+      <c r="B102" s="207" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="208" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="209">
+        <v>30.79</v>
+      </c>
+      <c r="E102" s="208">
+        <v>1</v>
+      </c>
+      <c r="F102" s="209">
+        <f t="shared" si="3"/>
+        <v>30.79</v>
+      </c>
+      <c r="G102" s="208"/>
+      <c r="H102" s="210" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="245"/>
+      <c r="B103" s="207" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="208" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="209">
+        <v>9.65</v>
+      </c>
+      <c r="E103" s="208">
+        <v>1</v>
+      </c>
+      <c r="F103" s="209">
+        <f t="shared" si="3"/>
+        <v>9.65</v>
+      </c>
+      <c r="G103" s="208"/>
+      <c r="H103" s="210" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="245"/>
+      <c r="B104" s="207" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="208"/>
+      <c r="D104" s="209">
+        <v>6.86</v>
+      </c>
+      <c r="E104" s="208">
+        <v>1</v>
+      </c>
+      <c r="F104" s="209">
+        <f t="shared" si="3"/>
+        <v>6.86</v>
+      </c>
+      <c r="G104" s="208"/>
+      <c r="H104" s="210" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="245"/>
+      <c r="B105" s="207" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" s="208"/>
+      <c r="D105" s="209">
+        <v>13.37</v>
+      </c>
+      <c r="E105" s="208">
+        <v>1</v>
+      </c>
+      <c r="F105" s="209">
+        <f t="shared" si="3"/>
+        <v>13.37</v>
+      </c>
+      <c r="G105" s="208"/>
+      <c r="H105" s="210" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="245"/>
+      <c r="B106" s="207" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="208"/>
+      <c r="D106" s="209">
+        <v>45.97</v>
+      </c>
+      <c r="E106" s="208">
+        <v>1</v>
+      </c>
+      <c r="F106" s="209">
+        <f t="shared" si="3"/>
+        <v>45.97</v>
+      </c>
+      <c r="G106" s="208"/>
+      <c r="H106" s="210" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="245"/>
+      <c r="B107" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="C107" s="112"/>
+      <c r="D107" s="113">
         <v>8.15</v>
       </c>
-      <c r="E100" s="107">
-        <v>1</v>
-      </c>
-      <c r="F100" s="108">
+      <c r="E107" s="112">
+        <v>1</v>
+      </c>
+      <c r="F107" s="113">
         <f t="shared" si="3"/>
         <v>8.15</v>
       </c>
-      <c r="G100" s="109"/>
-      <c r="H100" s="110" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="229"/>
-      <c r="B101" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="C101" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="113">
-        <v>7.52</v>
-      </c>
-      <c r="E101" s="112">
-        <v>1</v>
-      </c>
-      <c r="F101" s="113">
-        <f t="shared" si="3"/>
-        <v>7.52</v>
-      </c>
-      <c r="G101" s="112"/>
-      <c r="H101" s="114" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="229"/>
-      <c r="B102" s="207" t="s">
-        <v>359</v>
-      </c>
-      <c r="C102" s="208" t="s">
-        <v>360</v>
-      </c>
-      <c r="D102" s="209">
-        <v>3.33</v>
-      </c>
-      <c r="E102" s="208">
-        <v>1</v>
-      </c>
-      <c r="F102" s="209">
-        <f t="shared" si="3"/>
-        <v>3.33</v>
-      </c>
-      <c r="G102" s="208"/>
-      <c r="H102" s="210" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="229"/>
-      <c r="B103" s="207" t="s">
-        <v>97</v>
-      </c>
-      <c r="C103" s="208" t="s">
-        <v>98</v>
-      </c>
-      <c r="D103" s="209">
-        <v>30.79</v>
-      </c>
-      <c r="E103" s="208">
-        <v>1</v>
-      </c>
-      <c r="F103" s="209">
-        <f t="shared" si="3"/>
-        <v>30.79</v>
-      </c>
-      <c r="G103" s="208"/>
-      <c r="H103" s="210" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" s="229"/>
-      <c r="B104" s="207" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104" s="208" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104" s="209">
-        <v>9.65</v>
-      </c>
-      <c r="E104" s="208">
-        <v>1</v>
-      </c>
-      <c r="F104" s="209">
-        <f t="shared" si="3"/>
-        <v>9.65</v>
-      </c>
-      <c r="G104" s="208"/>
-      <c r="H104" s="210" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" s="229"/>
-      <c r="B105" s="207" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" s="208"/>
-      <c r="D105" s="209">
-        <v>6.86</v>
-      </c>
-      <c r="E105" s="208">
-        <v>1</v>
-      </c>
-      <c r="F105" s="209">
-        <f t="shared" si="3"/>
-        <v>6.86</v>
-      </c>
-      <c r="G105" s="208"/>
-      <c r="H105" s="210" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" s="229"/>
-      <c r="B106" s="207" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" s="208"/>
-      <c r="D106" s="209">
-        <v>13.37</v>
-      </c>
-      <c r="E106" s="208">
-        <v>1</v>
-      </c>
-      <c r="F106" s="209">
-        <f t="shared" si="3"/>
-        <v>13.37</v>
-      </c>
-      <c r="G106" s="208"/>
-      <c r="H106" s="210" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="229"/>
-      <c r="B107" s="207" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="208"/>
-      <c r="D107" s="209">
-        <v>45.97</v>
-      </c>
-      <c r="E107" s="208">
-        <v>1</v>
-      </c>
-      <c r="F107" s="209">
-        <f t="shared" si="3"/>
-        <v>45.97</v>
-      </c>
-      <c r="G107" s="208"/>
-      <c r="H107" s="210" t="s">
+      <c r="G107" s="112"/>
+      <c r="H107" s="114" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="245"/>
+      <c r="B108" s="116" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="229"/>
-      <c r="B108" s="111" t="s">
-        <v>495</v>
-      </c>
-      <c r="C108" s="112"/>
-      <c r="D108" s="113">
-        <v>8.15</v>
-      </c>
-      <c r="E108" s="112">
-        <v>1</v>
-      </c>
-      <c r="F108" s="113">
-        <f t="shared" si="3"/>
-        <v>8.15</v>
-      </c>
-      <c r="G108" s="112"/>
-      <c r="H108" s="114" t="s">
-        <v>496</v>
+      <c r="C108" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="D108" s="118">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E108" s="117">
+        <v>2</v>
+      </c>
+      <c r="F108" s="118">
+        <f t="shared" ref="F108:F113" si="4">D108*E108</f>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G108" s="119"/>
+      <c r="H108" s="120" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="229"/>
+      <c r="A109" s="245"/>
       <c r="B109" s="116" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" s="117" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D109" s="118">
-        <v>2.4300000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="E109" s="117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" s="118">
-        <f t="shared" ref="F109:F114" si="4">D109*E109</f>
-        <v>4.8600000000000003</v>
+        <f t="shared" si="4"/>
+        <v>3.5</v>
       </c>
       <c r="G109" s="119"/>
       <c r="H109" s="120" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="229"/>
+      <c r="A110" s="245"/>
       <c r="B110" s="116" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C110" s="117" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D110" s="118">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="E110" s="117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" s="118">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>6.86</v>
       </c>
       <c r="G110" s="119"/>
       <c r="H110" s="120" t="s">
-        <v>111</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I110" s="32"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="229"/>
+      <c r="A111" s="245"/>
       <c r="B111" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" s="117" t="s">
-        <v>72</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C111" s="117"/>
       <c r="D111" s="118">
-        <v>3.43</v>
+        <v>7.89</v>
       </c>
       <c r="E111" s="117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="118">
         <f t="shared" si="4"/>
-        <v>6.86</v>
+        <v>7.89</v>
       </c>
       <c r="G111" s="119"/>
-      <c r="H111" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="I111" s="32"/>
+      <c r="H111" s="121" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="229"/>
+      <c r="A112" s="245"/>
       <c r="B112" s="116" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" s="117"/>
       <c r="D112" s="118">
@@ -5600,188 +5623,191 @@
         <v>7.89</v>
       </c>
       <c r="G112" s="119"/>
-      <c r="H112" s="121" t="s">
-        <v>115</v>
+      <c r="H112" s="120" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="229"/>
+      <c r="A113" s="245"/>
       <c r="B113" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" s="117"/>
+        <v>117</v>
+      </c>
+      <c r="C113" s="117" t="s">
+        <v>118</v>
+      </c>
       <c r="D113" s="118">
-        <v>7.89</v>
+        <v>13.63</v>
       </c>
       <c r="E113" s="117">
         <v>1</v>
       </c>
       <c r="F113" s="118">
         <f t="shared" si="4"/>
-        <v>7.89</v>
+        <v>13.63</v>
       </c>
       <c r="G113" s="119"/>
       <c r="H113" s="120" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="229"/>
-      <c r="B114" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="117" t="s">
-        <v>119</v>
-      </c>
-      <c r="D114" s="118">
-        <v>13.63</v>
-      </c>
-      <c r="E114" s="117">
-        <v>1</v>
-      </c>
-      <c r="F114" s="118">
-        <f t="shared" si="4"/>
-        <v>13.63</v>
-      </c>
-      <c r="G114" s="119"/>
-      <c r="H114" s="120" t="s">
-        <v>120</v>
-      </c>
+      <c r="A114" s="245"/>
+      <c r="B114" s="84"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="86"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="86"/>
+      <c r="G114" s="87"/>
+      <c r="H114" s="115"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="229"/>
-      <c r="B115" s="84"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="86"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="86"/>
-      <c r="G115" s="87"/>
-      <c r="H115" s="115"/>
+      <c r="A115" s="245"/>
+      <c r="B115" s="184" t="s">
+        <v>475</v>
+      </c>
+      <c r="C115" s="185" t="s">
+        <v>360</v>
+      </c>
+      <c r="D115" s="186">
+        <v>489.99</v>
+      </c>
+      <c r="E115" s="185">
+        <v>1</v>
+      </c>
+      <c r="F115" s="186">
+        <f t="shared" ref="F115:F121" si="5">D115*E115</f>
+        <v>489.99</v>
+      </c>
+      <c r="G115" s="187"/>
+      <c r="H115" s="149" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="229"/>
+      <c r="A116" s="245"/>
       <c r="B116" s="184" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C116" s="185" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D116" s="186">
-        <v>489.99</v>
+        <v>399.99</v>
       </c>
       <c r="E116" s="185">
         <v>1</v>
       </c>
       <c r="F116" s="186">
-        <f t="shared" ref="F116:F122" si="5">D116*E116</f>
-        <v>489.99</v>
+        <f t="shared" si="5"/>
+        <v>399.99</v>
       </c>
       <c r="G116" s="187"/>
-      <c r="H116" s="149" t="s">
+      <c r="H116" s="149" t="str">
+        <f>HYPERLINK("http://www.maxamps.com/proddetail.php?prod=Lipo-11000-222-Pack","http://www.maxamps.com/proddetail.php?prod=Lipo-11000-222-Pack")</f>
+        <v>http://www.maxamps.com/proddetail.php?prod=Lipo-11000-222-Pack</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="245"/>
+      <c r="B117" s="184" t="s">
+        <v>361</v>
+      </c>
+      <c r="C117" s="185" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="229"/>
-      <c r="B117" s="184" t="s">
-        <v>478</v>
-      </c>
-      <c r="C117" s="185" t="s">
-        <v>363</v>
-      </c>
       <c r="D117" s="186">
-        <v>399.99</v>
+        <v>456.98</v>
       </c>
       <c r="E117" s="185">
         <v>1</v>
       </c>
       <c r="F117" s="186">
         <f t="shared" si="5"/>
-        <v>399.99</v>
+        <v>456.98</v>
       </c>
       <c r="G117" s="187"/>
       <c r="H117" s="149" t="str">
-        <f>HYPERLINK("http://www.maxamps.com/proddetail.php?prod=Lipo-11000-222-Pack","http://www.maxamps.com/proddetail.php?prod=Lipo-11000-222-Pack")</f>
-        <v>http://www.maxamps.com/proddetail.php?prod=Lipo-11000-222-Pack</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="229"/>
-      <c r="B118" s="184" t="s">
-        <v>364</v>
-      </c>
-      <c r="C118" s="185" t="s">
-        <v>365</v>
-      </c>
-      <c r="D118" s="186">
-        <v>456.98</v>
-      </c>
-      <c r="E118" s="185">
-        <v>1</v>
-      </c>
-      <c r="F118" s="186">
-        <f t="shared" si="5"/>
-        <v>456.98</v>
-      </c>
-      <c r="G118" s="187"/>
-      <c r="H118" s="149" t="str">
         <f>HYPERLINK("http://www.maxamps.com/EOS0720i-DUO3-6151.htm","http://www.maxamps.com/EOS0720i-DUO3-6151.htm")</f>
         <v>http://www.maxamps.com/EOS0720i-DUO3-6151.htm</v>
       </c>
     </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="245"/>
+      <c r="B118" s="97" t="s">
+        <v>363</v>
+      </c>
+      <c r="C118" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="D118" s="99">
+        <v>6.49</v>
+      </c>
+      <c r="E118" s="98">
+        <v>6</v>
+      </c>
+      <c r="F118" s="99">
+        <f t="shared" si="5"/>
+        <v>38.94</v>
+      </c>
+      <c r="G118" s="100"/>
+      <c r="H118" s="101" t="str">
+        <f>HYPERLINK("http://www.maxamps.com/Castle-65mm-SET.htm","http://www.maxamps.com/Castle-65mm-SET.htm")</f>
+        <v>http://www.maxamps.com/Castle-65mm-SET.htm</v>
+      </c>
+    </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="229"/>
+      <c r="A119" s="245"/>
       <c r="B119" s="97" t="s">
-        <v>366</v>
-      </c>
-      <c r="C119" s="98" t="s">
-        <v>367</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C119" s="98"/>
       <c r="D119" s="99">
-        <v>6.49</v>
+        <v>4</v>
       </c>
       <c r="E119" s="98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F119" s="99">
         <f t="shared" si="5"/>
-        <v>38.94</v>
+        <v>16</v>
       </c>
       <c r="G119" s="100"/>
       <c r="H119" s="101" t="str">
-        <f>HYPERLINK("http://www.maxamps.com/Castle-65mm-SET.htm","http://www.maxamps.com/Castle-65mm-SET.htm")</f>
-        <v>http://www.maxamps.com/Castle-65mm-SET.htm</v>
+        <f>HYPERLINK("http://www.maxamps.com/4mm-SET.htm","http://www.maxamps.com/4mm-SET.htm")</f>
+        <v>http://www.maxamps.com/4mm-SET.htm</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="229"/>
+      <c r="A120" s="245"/>
       <c r="B120" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="98"/>
       <c r="D120" s="99">
-        <v>4</v>
+        <v>0.99</v>
       </c>
       <c r="E120" s="98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F120" s="99">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>4.95</v>
       </c>
       <c r="G120" s="100"/>
       <c r="H120" s="101" t="str">
-        <f>HYPERLINK("http://www.maxamps.com/4mm-SET.htm","http://www.maxamps.com/4mm-SET.htm")</f>
-        <v>http://www.maxamps.com/4mm-SET.htm</v>
+        <f>HYPERLINK("http://www.maxamps.com/16AWG-RED.htm","http://www.maxamps.com/16AWG-RED.htm")</f>
+        <v>http://www.maxamps.com/16AWG-RED.htm</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="229"/>
+      <c r="A121" s="245"/>
       <c r="B121" s="97" t="s">
         <v>123</v>
       </c>
       <c r="C121" s="98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D121" s="99">
         <v>0.99</v>
@@ -5795,280 +5821,277 @@
       </c>
       <c r="G121" s="100"/>
       <c r="H121" s="101" t="str">
-        <f>HYPERLINK("http://www.maxamps.com/16AWG-RED.htm","http://www.maxamps.com/16AWG-RED.htm")</f>
-        <v>http://www.maxamps.com/16AWG-RED.htm</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="229"/>
-      <c r="B122" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="C122" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="D122" s="99">
-        <v>0.99</v>
-      </c>
-      <c r="E122" s="98">
-        <v>5</v>
-      </c>
-      <c r="F122" s="99">
-        <f t="shared" si="5"/>
-        <v>4.95</v>
-      </c>
-      <c r="G122" s="100"/>
-      <c r="H122" s="101" t="str">
         <f>HYPERLINK("http://www.maxamps.com/16AWG-BLACK.htm","http://www.maxamps.com/16AWG-BLACK.htm")</f>
         <v>http://www.maxamps.com/16AWG-BLACK.htm</v>
       </c>
     </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="245"/>
+      <c r="B122" s="84"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="87"/>
+      <c r="H122" s="88"/>
+    </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="229"/>
-      <c r="B123" s="84"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="86"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="87"/>
-      <c r="H123" s="88"/>
+      <c r="A123" s="245"/>
+      <c r="B123" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="98"/>
+      <c r="D123" s="99">
+        <v>14.95</v>
+      </c>
+      <c r="E123" s="98">
+        <v>1</v>
+      </c>
+      <c r="F123" s="99">
+        <f>D123*E123</f>
+        <v>14.95</v>
+      </c>
+      <c r="G123" s="100"/>
+      <c r="H123" s="101" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="229"/>
-      <c r="B124" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" s="98"/>
-      <c r="D124" s="99">
-        <v>14.95</v>
-      </c>
-      <c r="E124" s="98">
-        <v>1</v>
-      </c>
-      <c r="F124" s="99">
-        <f>D124*E124</f>
-        <v>14.95</v>
-      </c>
-      <c r="G124" s="100"/>
-      <c r="H124" s="101" t="s">
+      <c r="A124" s="245"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="86"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="87"/>
+      <c r="H124" s="88"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="245"/>
+      <c r="B125" s="126"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="127"/>
+      <c r="E125" s="126"/>
+      <c r="F125" s="127"/>
+      <c r="G125" s="128">
+        <f>SUM(F19:F124)</f>
+        <v>5403.9899999999961</v>
+      </c>
+      <c r="H125" s="129"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="39"/>
+    </row>
+    <row r="127" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="245" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="229"/>
-      <c r="B125" s="84"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="86"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="86"/>
-      <c r="G125" s="87"/>
-      <c r="H125" s="88"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="229"/>
-      <c r="B126" s="126"/>
-      <c r="C126" s="126"/>
-      <c r="D126" s="127"/>
-      <c r="E126" s="126"/>
-      <c r="F126" s="127"/>
-      <c r="G126" s="128">
-        <f>SUM(F19:F125)</f>
-        <v>5470.6799999999948</v>
-      </c>
-      <c r="H126" s="129"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="39"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="40"/>
-      <c r="H127" s="39"/>
-    </row>
-    <row r="128" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="229" t="s">
-        <v>127</v>
-      </c>
+      <c r="B127" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="C127" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="D127" s="108">
+        <v>395</v>
+      </c>
+      <c r="E127" s="107">
+        <v>2</v>
+      </c>
+      <c r="F127" s="108">
+        <f>D127*E127</f>
+        <v>790</v>
+      </c>
+      <c r="G127" s="109"/>
+      <c r="H127" s="110" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="245"/>
       <c r="B128" s="106" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C128" s="107" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D128" s="108">
-        <v>395</v>
+        <v>25</v>
       </c>
       <c r="E128" s="107">
         <v>2</v>
       </c>
       <c r="F128" s="108">
         <f>D128*E128</f>
-        <v>790</v>
+        <v>50</v>
       </c>
       <c r="G128" s="109"/>
       <c r="H128" s="110" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="229"/>
-      <c r="B129" s="106" t="s">
+      <c r="A129" s="245"/>
+      <c r="B129" s="106"/>
+      <c r="C129" s="107"/>
+      <c r="D129" s="108"/>
+      <c r="E129" s="107"/>
+      <c r="F129" s="108"/>
+      <c r="G129" s="109"/>
+      <c r="H129" s="110"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="245"/>
+      <c r="B130" s="106" t="s">
+        <v>371</v>
+      </c>
+      <c r="C130" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="C129" s="107" t="s">
-        <v>389</v>
-      </c>
-      <c r="D129" s="108">
-        <v>25</v>
-      </c>
-      <c r="E129" s="107">
+      <c r="D130" s="108">
+        <v>375</v>
+      </c>
+      <c r="E130" s="107">
         <v>2</v>
       </c>
-      <c r="F129" s="108">
-        <f>D129*E129</f>
-        <v>50</v>
-      </c>
-      <c r="G129" s="109"/>
-      <c r="H129" s="110" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="229"/>
-      <c r="B130" s="106"/>
-      <c r="C130" s="107"/>
-      <c r="D130" s="108"/>
-      <c r="E130" s="107"/>
-      <c r="F130" s="108"/>
+      <c r="F130" s="108">
+        <f>D130*E130</f>
+        <v>750</v>
+      </c>
       <c r="G130" s="109"/>
-      <c r="H130" s="110"/>
+      <c r="H130" s="149" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="229"/>
-      <c r="B131" s="106" t="s">
-        <v>374</v>
-      </c>
-      <c r="C131" s="107" t="s">
-        <v>391</v>
-      </c>
-      <c r="D131" s="108">
-        <v>375</v>
-      </c>
-      <c r="E131" s="107">
+      <c r="A131" s="245"/>
+      <c r="B131" s="84"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="86"/>
+      <c r="E131" s="85"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="87"/>
+      <c r="H131" s="88"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="245"/>
+      <c r="B132" s="106" t="s">
+        <v>526</v>
+      </c>
+      <c r="C132" s="107"/>
+      <c r="D132" s="108">
+        <v>2.95</v>
+      </c>
+      <c r="E132" s="107">
         <v>2</v>
       </c>
-      <c r="F131" s="108">
-        <f>D131*E131</f>
-        <v>750</v>
-      </c>
-      <c r="G131" s="109"/>
-      <c r="H131" s="149" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="229"/>
-      <c r="B132" s="84"/>
-      <c r="C132" s="85"/>
-      <c r="D132" s="86"/>
-      <c r="E132" s="85"/>
-      <c r="F132" s="86"/>
-      <c r="G132" s="87"/>
-      <c r="H132" s="88"/>
+      <c r="F132" s="108">
+        <f t="shared" ref="F132:F137" si="6">D132*E132</f>
+        <v>5.9</v>
+      </c>
+      <c r="G132" s="109"/>
+      <c r="H132" s="110" t="str">
+        <f>HYPERLINK("http://www.adafruit.com/products/899","http://www.adafruit.com/products/899")</f>
+        <v>http://www.adafruit.com/products/899</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="229"/>
+      <c r="A133" s="245"/>
       <c r="B133" s="106" t="s">
-        <v>535</v>
+        <v>127</v>
       </c>
       <c r="C133" s="107"/>
       <c r="D133" s="108">
-        <v>2.95</v>
+        <v>5.95</v>
       </c>
       <c r="E133" s="107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" s="108">
-        <f>D133*E133</f>
-        <v>5.9</v>
+        <f t="shared" si="6"/>
+        <v>5.95</v>
       </c>
       <c r="G133" s="109"/>
-      <c r="H133" s="110" t="str">
-        <f>HYPERLINK("http://www.adafruit.com/products/899","http://www.adafruit.com/products/899")</f>
-        <v>http://www.adafruit.com/products/899</v>
+      <c r="H133" s="110" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="229"/>
+      <c r="A134" s="245"/>
       <c r="B134" s="106" t="s">
-        <v>128</v>
+        <v>515</v>
       </c>
       <c r="C134" s="107"/>
       <c r="D134" s="108">
-        <v>5.95</v>
+        <v>4.95</v>
       </c>
       <c r="E134" s="107">
         <v>1</v>
       </c>
       <c r="F134" s="108">
-        <f>D134*E134</f>
-        <v>5.95</v>
+        <f t="shared" si="6"/>
+        <v>4.95</v>
       </c>
       <c r="G134" s="109"/>
       <c r="H134" s="110" t="s">
-        <v>129</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="229"/>
+      <c r="A135" s="245"/>
       <c r="B135" s="106" t="s">
-        <v>524</v>
-      </c>
-      <c r="C135" s="107"/>
+        <v>466</v>
+      </c>
+      <c r="C135" s="107" t="s">
+        <v>468</v>
+      </c>
       <c r="D135" s="108">
-        <v>4.95</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="E135" s="107">
         <v>1</v>
       </c>
       <c r="F135" s="108">
-        <f>D135*E135</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>34.950000000000003</v>
       </c>
       <c r="G135" s="109"/>
       <c r="H135" s="110" t="s">
-        <v>525</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="229"/>
+      <c r="A136" s="245"/>
       <c r="B136" s="106" t="s">
-        <v>470</v>
-      </c>
-      <c r="C136" s="107" t="s">
-        <v>472</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="C136" s="107"/>
       <c r="D136" s="108">
-        <v>34.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="E136" s="107">
         <v>1</v>
       </c>
       <c r="F136" s="108">
-        <f>D136*E136</f>
-        <v>34.950000000000003</v>
+        <f t="shared" si="6"/>
+        <v>0.95</v>
       </c>
       <c r="G136" s="109"/>
       <c r="H136" s="110" t="s">
-        <v>471</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="229"/>
+      <c r="A137" s="245"/>
       <c r="B137" s="106" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C137" s="107"/>
       <c r="D137" s="108">
@@ -6078,16 +6101,16 @@
         <v>1</v>
       </c>
       <c r="F137" s="108">
-        <f>D137*E137</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G137" s="109"/>
       <c r="H137" s="110" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="229"/>
+      <c r="A138" s="245"/>
       <c r="B138" s="84"/>
       <c r="C138" s="85"/>
       <c r="D138" s="86"/>
@@ -6097,12 +6120,12 @@
       <c r="H138" s="88"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="229"/>
+      <c r="A139" s="245"/>
       <c r="B139" s="184" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C139" s="185" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D139" s="186">
         <v>1495</v>
@@ -6116,13 +6139,13 @@
       </c>
       <c r="G139" s="187"/>
       <c r="H139" s="188" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="229"/>
+      <c r="A140" s="245"/>
       <c r="B140" s="106" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C140" s="107"/>
       <c r="D140" s="108">
@@ -6137,11 +6160,11 @@
       </c>
       <c r="G140" s="109"/>
       <c r="H140" s="148" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="229"/>
+      <c r="A141" s="245"/>
       <c r="B141" s="130"/>
       <c r="C141" s="131"/>
       <c r="D141" s="92"/>
@@ -6151,12 +6174,12 @@
       <c r="H141" s="133"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="229"/>
+      <c r="A142" s="245"/>
       <c r="B142" s="184" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C142" s="185" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D142" s="186">
         <v>17.399999999999999</v>
@@ -6170,16 +6193,16 @@
       </c>
       <c r="G142" s="187"/>
       <c r="H142" s="149" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="245"/>
+      <c r="B143" s="184" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="229"/>
-      <c r="B143" s="184" t="s">
-        <v>131</v>
-      </c>
       <c r="C143" s="185" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D143" s="186">
         <v>25.48</v>
@@ -6198,7 +6221,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="229"/>
+      <c r="A144" s="245"/>
       <c r="B144" s="130"/>
       <c r="C144" s="131"/>
       <c r="D144" s="92"/>
@@ -6208,12 +6231,12 @@
       <c r="H144" s="133"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="229"/>
+      <c r="A145" s="245"/>
       <c r="B145" s="184" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C145" s="185" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D145" s="186">
         <v>270</v>
@@ -6227,16 +6250,16 @@
       </c>
       <c r="G145" s="187"/>
       <c r="H145" s="149" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="245"/>
+      <c r="B146" s="184" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="229"/>
-      <c r="B146" s="184" t="s">
-        <v>381</v>
-      </c>
       <c r="C146" s="185" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D146" s="186">
         <v>1650</v>
@@ -6250,16 +6273,16 @@
       </c>
       <c r="G146" s="187"/>
       <c r="H146" s="149" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="229"/>
+      <c r="A147" s="245"/>
       <c r="B147" s="78" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C147" s="79" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D147" s="80">
         <v>578</v>
@@ -6278,7 +6301,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="229"/>
+      <c r="A148" s="245"/>
       <c r="B148" s="84"/>
       <c r="C148" s="85"/>
       <c r="D148" s="86"/>
@@ -6288,9 +6311,9 @@
       <c r="H148" s="88"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" s="229"/>
+      <c r="A149" s="245"/>
       <c r="B149" s="78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C149" s="79"/>
       <c r="D149" s="80">
@@ -6300,7 +6323,7 @@
         <v>2</v>
       </c>
       <c r="F149" s="80">
-        <f t="shared" ref="F149:F168" si="6">D149*E149</f>
+        <f t="shared" ref="F149:F168" si="7">D149*E149</f>
         <v>20</v>
       </c>
       <c r="G149" s="81"/>
@@ -6310,9 +6333,9 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150" s="229"/>
+      <c r="A150" s="245"/>
       <c r="B150" s="78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C150" s="79"/>
       <c r="D150" s="80">
@@ -6322,7 +6345,7 @@
         <v>2</v>
       </c>
       <c r="F150" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G150" s="81"/>
@@ -6332,9 +6355,9 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A151" s="229"/>
+      <c r="A151" s="245"/>
       <c r="B151" s="78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C151" s="79"/>
       <c r="D151" s="80">
@@ -6344,18 +6367,18 @@
         <v>5</v>
       </c>
       <c r="F151" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.25</v>
       </c>
       <c r="G151" s="81"/>
       <c r="H151" s="82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" s="245"/>
+      <c r="B152" s="78" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152" s="229"/>
-      <c r="B152" s="78" t="s">
-        <v>136</v>
       </c>
       <c r="C152" s="79"/>
       <c r="D152" s="80">
@@ -6365,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G152" s="81"/>
@@ -6375,9 +6398,9 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="229"/>
+      <c r="A153" s="245"/>
       <c r="B153" s="78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C153" s="79"/>
       <c r="D153" s="80">
@@ -6387,18 +6410,18 @@
         <v>1</v>
       </c>
       <c r="F153" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="G153" s="81"/>
       <c r="H153" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="245"/>
+      <c r="B154" s="78" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="229"/>
-      <c r="B154" s="78" t="s">
-        <v>139</v>
       </c>
       <c r="C154" s="79"/>
       <c r="D154" s="80">
@@ -6408,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="G154" s="81"/>
@@ -6418,9 +6441,9 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="229"/>
+      <c r="A155" s="245"/>
       <c r="B155" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C155" s="79"/>
       <c r="D155" s="80">
@@ -6430,18 +6453,18 @@
         <v>1</v>
       </c>
       <c r="F155" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="G155" s="81"/>
       <c r="H155" s="82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="245"/>
+      <c r="B156" s="78" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="229"/>
-      <c r="B156" s="78" t="s">
-        <v>142</v>
       </c>
       <c r="C156" s="79"/>
       <c r="D156" s="80">
@@ -6451,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="G156" s="81"/>
@@ -6461,12 +6484,12 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="229"/>
+      <c r="A157" s="245"/>
       <c r="B157" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" s="79" t="s">
         <v>143</v>
-      </c>
-      <c r="C157" s="79" t="s">
-        <v>144</v>
       </c>
       <c r="D157" s="80">
         <v>0.69</v>
@@ -6475,21 +6498,21 @@
         <v>1</v>
       </c>
       <c r="F157" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.69</v>
       </c>
       <c r="G157" s="81"/>
       <c r="H157" s="82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="245"/>
+      <c r="B158" s="78" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="229"/>
-      <c r="B158" s="78" t="s">
-        <v>146</v>
-      </c>
       <c r="C158" s="79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D158" s="80">
         <v>0.79</v>
@@ -6498,21 +6521,21 @@
         <v>1</v>
       </c>
       <c r="F158" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.79</v>
       </c>
       <c r="G158" s="81"/>
       <c r="H158" s="82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="245"/>
+      <c r="B159" s="78" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="229"/>
-      <c r="B159" s="78" t="s">
-        <v>148</v>
-      </c>
       <c r="C159" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D159" s="80">
         <v>0.59</v>
@@ -6521,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.59</v>
       </c>
       <c r="G159" s="81"/>
@@ -6531,12 +6554,12 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="229"/>
+      <c r="A160" s="245"/>
       <c r="B160" s="78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C160" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D160" s="80">
         <v>0.69</v>
@@ -6545,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.69</v>
       </c>
       <c r="G160" s="81"/>
@@ -6555,12 +6578,12 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="229"/>
+      <c r="A161" s="245"/>
       <c r="B161" s="78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C161" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D161" s="80">
         <v>0.79</v>
@@ -6569,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="F161" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.58</v>
       </c>
       <c r="G161" s="81"/>
@@ -6579,12 +6602,12 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" s="229"/>
+      <c r="A162" s="245"/>
       <c r="B162" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C162" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D162" s="80">
         <v>0.59</v>
@@ -6593,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.59</v>
       </c>
       <c r="G162" s="81"/>
@@ -6603,12 +6626,12 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A163" s="229"/>
+      <c r="A163" s="245"/>
       <c r="B163" s="78" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C163" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D163" s="80">
         <v>0.69</v>
@@ -6617,21 +6640,21 @@
         <v>1</v>
       </c>
       <c r="F163" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.69</v>
       </c>
       <c r="G163" s="81"/>
       <c r="H163" s="82" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="229"/>
+      <c r="A164" s="245"/>
       <c r="B164" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C164" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D164" s="80">
         <v>0.89</v>
@@ -6640,18 +6663,18 @@
         <v>1</v>
       </c>
       <c r="F164" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.89</v>
       </c>
       <c r="G164" s="81"/>
       <c r="H164" s="82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="245"/>
+      <c r="B165" s="97" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="229"/>
-      <c r="B165" s="97" t="s">
-        <v>154</v>
       </c>
       <c r="C165" s="98"/>
       <c r="D165" s="99">
@@ -6661,7 +6684,7 @@
         <v>2</v>
       </c>
       <c r="F165" s="99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G165" s="100"/>
@@ -6671,9 +6694,9 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="229"/>
+      <c r="A166" s="245"/>
       <c r="B166" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C166" s="98"/>
       <c r="D166" s="99">
@@ -6683,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G166" s="100"/>
@@ -6693,9 +6716,9 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="229"/>
+      <c r="A167" s="245"/>
       <c r="B167" s="97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C167" s="98"/>
       <c r="D167" s="99">
@@ -6705,7 +6728,7 @@
         <v>4</v>
       </c>
       <c r="F167" s="99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8</v>
       </c>
       <c r="G167" s="100"/>
@@ -6715,9 +6738,9 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="229"/>
+      <c r="A168" s="245"/>
       <c r="B168" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C168" s="98"/>
       <c r="D168" s="99">
@@ -6727,7 +6750,7 @@
         <v>4</v>
       </c>
       <c r="F168" s="99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.8</v>
       </c>
       <c r="G168" s="100"/>
@@ -6737,7 +6760,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="229"/>
+      <c r="A169" s="245"/>
       <c r="B169" s="211"/>
       <c r="C169" s="212"/>
       <c r="D169" s="213"/>
@@ -6747,9 +6770,9 @@
       <c r="H169" s="215"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="230"/>
+      <c r="A170" s="246"/>
       <c r="B170" s="162" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C170" s="163"/>
       <c r="D170" s="199">
@@ -6759,37 +6782,39 @@
         <v>2</v>
       </c>
       <c r="F170" s="80">
-        <f t="shared" ref="F170:F171" si="7">D170*E170</f>
+        <f t="shared" ref="F170:F171" si="8">D170*E170</f>
         <v>29.3</v>
       </c>
       <c r="G170" s="163"/>
       <c r="H170" s="149" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="230"/>
-      <c r="B171" s="162" t="s">
-        <v>491</v>
-      </c>
-      <c r="C171" s="163"/>
-      <c r="D171" s="199">
+      <c r="A171" s="246"/>
+      <c r="B171" s="184" t="s">
+        <v>602</v>
+      </c>
+      <c r="C171" s="185" t="s">
+        <v>601</v>
+      </c>
+      <c r="D171" s="223">
         <v>33.25</v>
       </c>
-      <c r="E171" s="164">
-        <v>1</v>
-      </c>
-      <c r="F171" s="80">
-        <f t="shared" si="7"/>
-        <v>33.25</v>
-      </c>
-      <c r="G171" s="163"/>
-      <c r="H171" s="149" t="s">
-        <v>492</v>
+      <c r="E171" s="224">
+        <v>0</v>
+      </c>
+      <c r="F171" s="186">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="185"/>
+      <c r="H171" s="225" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="230"/>
+      <c r="A172" s="246"/>
       <c r="B172" s="161"/>
       <c r="C172" s="159"/>
       <c r="D172" s="216"/>
@@ -6799,12 +6824,12 @@
       <c r="H172" s="217"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="229"/>
+      <c r="A173" s="245"/>
       <c r="B173" s="78" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C173" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D173" s="80">
         <v>1.4</v>
@@ -6823,7 +6848,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="229"/>
+      <c r="A174" s="245"/>
       <c r="B174" s="84"/>
       <c r="C174" s="85"/>
       <c r="D174" s="86"/>
@@ -6833,9 +6858,9 @@
       <c r="H174" s="88"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="229"/>
+      <c r="A175" s="245"/>
       <c r="B175" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C175" s="79"/>
       <c r="D175" s="80">
@@ -6850,13 +6875,13 @@
       </c>
       <c r="G175" s="81"/>
       <c r="H175" s="96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" s="245"/>
+      <c r="B176" s="106" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="229"/>
-      <c r="B176" s="106" t="s">
-        <v>160</v>
       </c>
       <c r="C176" s="107"/>
       <c r="D176" s="108">
@@ -6871,13 +6896,13 @@
       </c>
       <c r="G176" s="109"/>
       <c r="H176" s="135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A177" s="229"/>
+      <c r="A177" s="245"/>
       <c r="B177" s="106" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C177" s="107"/>
       <c r="D177" s="108">
@@ -6892,11 +6917,11 @@
       </c>
       <c r="G177" s="109"/>
       <c r="H177" s="110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A178" s="229"/>
+      <c r="A178" s="245"/>
       <c r="B178" s="123"/>
       <c r="C178" s="123"/>
       <c r="D178" s="124"/>
@@ -6906,15 +6931,15 @@
       <c r="H178" s="137"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A179" s="229"/>
+      <c r="A179" s="245"/>
       <c r="B179" s="126"/>
       <c r="C179" s="126"/>
       <c r="D179" s="127"/>
       <c r="E179" s="126"/>
       <c r="F179" s="127"/>
       <c r="G179" s="128">
-        <f>SUM(F128:F177)</f>
-        <v>6034.6</v>
+        <f>SUM(F127:F177)</f>
+        <v>6002.3000000000011</v>
       </c>
       <c r="H179" s="129"/>
     </row>
@@ -6939,14 +6964,14 @@
       <c r="H181" s="39"/>
     </row>
     <row r="182" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="230" t="s">
-        <v>163</v>
+      <c r="A182" s="246" t="s">
+        <v>162</v>
       </c>
       <c r="B182" s="218" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C182" s="163" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D182" s="199">
         <v>108.99</v>
@@ -6955,12 +6980,12 @@
         <v>1</v>
       </c>
       <c r="F182" s="108">
-        <f t="shared" ref="F182:F193" si="8">D182*E182</f>
+        <f t="shared" ref="F182:F193" si="9">D182*E182</f>
         <v>108.99</v>
       </c>
       <c r="G182" s="163"/>
       <c r="H182" s="165" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I182" s="27"/>
       <c r="J182" s="27"/>
@@ -6971,12 +6996,12 @@
       <c r="O182" s="44"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A183" s="230"/>
+      <c r="A183" s="246"/>
       <c r="B183" s="162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C183" s="163" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D183" s="199">
         <v>304.99</v>
@@ -6985,12 +7010,12 @@
         <v>1</v>
       </c>
       <c r="F183" s="108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>304.99</v>
       </c>
       <c r="G183" s="163"/>
       <c r="H183" s="165" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I183" s="27"/>
       <c r="J183" s="27"/>
@@ -7001,9 +7026,9 @@
       <c r="O183" s="46"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A184" s="230"/>
+      <c r="A184" s="246"/>
       <c r="B184" s="162" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C184" s="163"/>
       <c r="D184" s="199">
@@ -7013,12 +7038,12 @@
         <v>1</v>
       </c>
       <c r="F184" s="108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>157.99</v>
       </c>
       <c r="G184" s="163"/>
       <c r="H184" s="165" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I184" s="27"/>
       <c r="J184" s="27"/>
@@ -7029,9 +7054,9 @@
       <c r="O184" s="44"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A185" s="230"/>
+      <c r="A185" s="246"/>
       <c r="B185" s="162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C185" s="163"/>
       <c r="D185" s="199">
@@ -7041,12 +7066,12 @@
         <v>1</v>
       </c>
       <c r="F185" s="108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>309.99</v>
       </c>
       <c r="G185" s="163"/>
       <c r="H185" s="166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I185" s="27"/>
       <c r="J185" s="27"/>
@@ -7057,24 +7082,24 @@
       <c r="O185" s="44"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A186" s="230"/>
+      <c r="A186" s="246"/>
       <c r="B186" s="162" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C186" s="163"/>
       <c r="D186" s="199">
-        <v>479.99</v>
+        <v>448</v>
       </c>
       <c r="E186" s="164">
         <v>1</v>
       </c>
       <c r="F186" s="108">
-        <f t="shared" si="8"/>
-        <v>479.99</v>
+        <f t="shared" si="9"/>
+        <v>448</v>
       </c>
       <c r="G186" s="163"/>
       <c r="H186" s="166" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I186" s="27"/>
       <c r="J186" s="27"/>
@@ -7085,12 +7110,12 @@
       <c r="O186" s="44"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A187" s="229"/>
+      <c r="A187" s="245"/>
       <c r="B187" s="154" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C187" s="155" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D187" s="156">
         <v>39.19</v>
@@ -7116,12 +7141,12 @@
       <c r="O187" s="44"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A188" s="229"/>
+      <c r="A188" s="245"/>
       <c r="B188" s="106" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C188" s="107" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D188" s="108">
         <v>7.95</v>
@@ -7130,12 +7155,12 @@
         <v>1</v>
       </c>
       <c r="F188" s="108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.95</v>
       </c>
       <c r="G188" s="109"/>
       <c r="H188" s="152" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I188" s="27"/>
       <c r="J188" s="27"/>
@@ -7146,9 +7171,9 @@
       <c r="O188" s="44"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A189" s="229"/>
+      <c r="A189" s="245"/>
       <c r="B189" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C189" s="107"/>
       <c r="D189" s="108">
@@ -7158,12 +7183,12 @@
         <v>1</v>
       </c>
       <c r="F189" s="108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.12</v>
       </c>
       <c r="G189" s="109"/>
       <c r="H189" s="135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I189" s="27"/>
       <c r="J189" s="27"/>
@@ -7174,9 +7199,9 @@
       <c r="O189" s="44"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A190" s="229"/>
+      <c r="A190" s="245"/>
       <c r="B190" s="106" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C190" s="107"/>
       <c r="D190" s="108">
@@ -7186,12 +7211,12 @@
         <v>1</v>
       </c>
       <c r="F190" s="108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.99</v>
       </c>
       <c r="G190" s="109"/>
       <c r="H190" s="135" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I190" s="27"/>
       <c r="J190" s="27"/>
@@ -7202,9 +7227,9 @@
       <c r="O190" s="44"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A191" s="229"/>
+      <c r="A191" s="245"/>
       <c r="B191" s="106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C191" s="107"/>
       <c r="D191" s="108">
@@ -7214,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.989999999999998</v>
       </c>
       <c r="G191" s="109"/>
@@ -7224,9 +7249,9 @@
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A192" s="229"/>
+      <c r="A192" s="245"/>
       <c r="B192" s="106" t="s">
-        <v>171</v>
+        <v>597</v>
       </c>
       <c r="C192" s="107"/>
       <c r="D192" s="108">
@@ -7236,18 +7261,18 @@
         <v>1</v>
       </c>
       <c r="F192" s="108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.29</v>
       </c>
       <c r="G192" s="109"/>
       <c r="H192" s="135" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="229"/>
+      <c r="A193" s="245"/>
       <c r="B193" s="138" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C193" s="134"/>
       <c r="D193" s="139">
@@ -7257,18 +7282,18 @@
         <v>3</v>
       </c>
       <c r="F193" s="108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.97</v>
       </c>
       <c r="G193" s="134"/>
       <c r="H193" s="135" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A194" s="229"/>
+      <c r="A194" s="245"/>
       <c r="B194" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C194" s="29"/>
       <c r="D194" s="52">
@@ -7283,13 +7308,13 @@
       </c>
       <c r="G194" s="54"/>
       <c r="H194" s="55" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="229"/>
+      <c r="A195" s="245"/>
       <c r="B195" s="56" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C195" s="143"/>
       <c r="D195" s="139">
@@ -7304,15 +7329,17 @@
       </c>
       <c r="G195" s="144"/>
       <c r="H195" s="135" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="229"/>
+      <c r="A196" s="245"/>
       <c r="B196" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="C196" s="143"/>
+        <v>595</v>
+      </c>
+      <c r="C196" s="143" t="s">
+        <v>596</v>
+      </c>
       <c r="D196" s="139">
         <v>329</v>
       </c>
@@ -7325,11 +7352,11 @@
       </c>
       <c r="G196" s="144"/>
       <c r="H196" s="150" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="229"/>
+      <c r="A197" s="245"/>
       <c r="B197" s="56"/>
       <c r="C197" s="143"/>
       <c r="D197" s="139"/>
@@ -7339,9 +7366,9 @@
       <c r="H197" s="150"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="229"/>
+      <c r="A198" s="245"/>
       <c r="B198" s="106" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C198" s="107"/>
       <c r="D198" s="108">
@@ -7361,9 +7388,9 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="229"/>
+      <c r="A199" s="245"/>
       <c r="B199" s="106" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C199" s="107"/>
       <c r="D199" s="108">
@@ -7383,7 +7410,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="229"/>
+      <c r="A200" s="245"/>
       <c r="B200" s="84"/>
       <c r="C200" s="85"/>
       <c r="D200" s="86"/>
@@ -7393,9 +7420,9 @@
       <c r="H200" s="88"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="229"/>
+      <c r="A201" s="245"/>
       <c r="B201" s="78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C201" s="79"/>
       <c r="D201" s="80">
@@ -7405,18 +7432,18 @@
         <v>1</v>
       </c>
       <c r="F201" s="80">
-        <f t="shared" ref="F201:F241" si="9">D201*E201</f>
+        <f t="shared" ref="F201:F241" si="10">D201*E201</f>
         <v>19.93</v>
       </c>
       <c r="G201" s="81"/>
       <c r="H201" s="82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="229"/>
+      <c r="A202" s="245"/>
       <c r="B202" s="78" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C202" s="79"/>
       <c r="D202" s="80">
@@ -7431,13 +7458,13 @@
       </c>
       <c r="G202" s="81"/>
       <c r="H202" s="82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="229"/>
+      <c r="A203" s="245"/>
       <c r="B203" s="78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C203" s="79"/>
       <c r="D203" s="80">
@@ -7447,41 +7474,41 @@
         <v>2</v>
       </c>
       <c r="F203" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.9</v>
       </c>
       <c r="G203" s="81"/>
       <c r="H203" s="82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="229"/>
-      <c r="B204" s="78" t="s">
-        <v>501</v>
-      </c>
-      <c r="C204" s="79" t="s">
-        <v>502</v>
-      </c>
-      <c r="D204" s="80">
+      <c r="A204" s="245"/>
+      <c r="B204" s="184" t="s">
+        <v>599</v>
+      </c>
+      <c r="C204" s="185" t="s">
+        <v>600</v>
+      </c>
+      <c r="D204" s="186">
         <v>7.01</v>
       </c>
-      <c r="E204" s="83">
-        <v>1</v>
-      </c>
-      <c r="F204" s="80">
-        <f t="shared" si="9"/>
-        <v>7.01</v>
-      </c>
-      <c r="G204" s="81"/>
-      <c r="H204" s="82" t="s">
-        <v>503</v>
+      <c r="E204" s="185">
+        <v>0</v>
+      </c>
+      <c r="F204" s="186">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G204" s="187"/>
+      <c r="H204" s="188" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="229"/>
+      <c r="A205" s="245"/>
       <c r="B205" s="78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C205" s="79"/>
       <c r="D205" s="80">
@@ -7491,18 +7518,18 @@
         <v>10</v>
       </c>
       <c r="F205" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2</v>
       </c>
       <c r="G205" s="81"/>
       <c r="H205" s="82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="229"/>
+      <c r="A206" s="245"/>
       <c r="B206" s="78" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C206" s="79"/>
       <c r="D206" s="80">
@@ -7512,18 +7539,18 @@
         <v>10</v>
       </c>
       <c r="F206" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="G206" s="81"/>
       <c r="H206" s="82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="229"/>
+      <c r="A207" s="245"/>
       <c r="B207" s="78" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C207" s="79"/>
       <c r="D207" s="80">
@@ -7533,18 +7560,18 @@
         <v>10</v>
       </c>
       <c r="F207" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="G207" s="81"/>
       <c r="H207" s="82" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="229"/>
+      <c r="A208" s="245"/>
       <c r="B208" s="78" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C208" s="79"/>
       <c r="D208" s="80">
@@ -7554,18 +7581,18 @@
         <v>10</v>
       </c>
       <c r="F208" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="G208" s="81"/>
       <c r="H208" s="82" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="229"/>
+      <c r="A209" s="245"/>
       <c r="B209" s="78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C209" s="79"/>
       <c r="D209" s="80">
@@ -7575,60 +7602,60 @@
         <v>10</v>
       </c>
       <c r="F209" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.7</v>
       </c>
       <c r="G209" s="81"/>
       <c r="H209" s="82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="229"/>
+      <c r="A210" s="245"/>
       <c r="B210" s="78" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C210" s="79"/>
       <c r="D210" s="80">
-        <v>36.35</v>
+        <v>37.4</v>
       </c>
       <c r="E210" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" s="80">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>37.4</v>
       </c>
       <c r="G210" s="81"/>
       <c r="H210" s="82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="229"/>
+      <c r="A211" s="245"/>
       <c r="B211" s="78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C211" s="79"/>
       <c r="D211" s="80">
         <v>14.95</v>
       </c>
       <c r="E211" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" s="80">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>14.95</v>
       </c>
       <c r="G211" s="81"/>
       <c r="H211" s="82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="229"/>
+      <c r="A212" s="245"/>
       <c r="B212" s="78" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C212" s="79"/>
       <c r="D212" s="80">
@@ -7638,20 +7665,20 @@
         <v>2</v>
       </c>
       <c r="F212" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.08</v>
       </c>
       <c r="G212" s="81"/>
       <c r="H212" s="82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="229"/>
-      <c r="B213" s="231" t="s">
-        <v>192</v>
-      </c>
-      <c r="C213" s="231"/>
+      <c r="A213" s="245"/>
+      <c r="B213" s="247" t="s">
+        <v>190</v>
+      </c>
+      <c r="C213" s="247"/>
       <c r="D213" s="80">
         <v>33.35</v>
       </c>
@@ -7659,18 +7686,18 @@
         <v>1</v>
       </c>
       <c r="F213" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.35</v>
       </c>
       <c r="G213" s="81"/>
       <c r="H213" s="82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214" s="229"/>
+      <c r="A214" s="245"/>
       <c r="B214" s="106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C214" s="107"/>
       <c r="D214" s="108">
@@ -7680,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="F214" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.194</v>
       </c>
       <c r="G214" s="109"/>
@@ -7690,9 +7717,9 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="229"/>
+      <c r="A215" s="245"/>
       <c r="B215" s="106" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C215" s="107"/>
       <c r="D215" s="108">
@@ -7702,18 +7729,18 @@
         <v>2</v>
       </c>
       <c r="F215" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.62</v>
       </c>
       <c r="G215" s="109"/>
       <c r="H215" s="110" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216" s="229"/>
+      <c r="A216" s="245"/>
       <c r="B216" s="106" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C216" s="107"/>
       <c r="D216" s="108">
@@ -7723,18 +7750,18 @@
         <v>2</v>
       </c>
       <c r="F216" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.52</v>
       </c>
       <c r="G216" s="109"/>
       <c r="H216" s="110" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="229"/>
+      <c r="A217" s="245"/>
       <c r="B217" s="106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C217" s="107"/>
       <c r="D217" s="108">
@@ -7744,18 +7771,18 @@
         <v>1</v>
       </c>
       <c r="F217" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="G217" s="109"/>
       <c r="H217" s="110" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="229"/>
+      <c r="A218" s="245"/>
       <c r="B218" s="106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C218" s="107"/>
       <c r="D218" s="108">
@@ -7765,18 +7792,18 @@
         <v>2</v>
       </c>
       <c r="F218" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.28</v>
       </c>
       <c r="G218" s="109"/>
       <c r="H218" s="110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="229"/>
+      <c r="A219" s="245"/>
       <c r="B219" s="106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C219" s="107"/>
       <c r="D219" s="108">
@@ -7786,18 +7813,18 @@
         <v>1</v>
       </c>
       <c r="F219" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.81</v>
       </c>
       <c r="G219" s="109"/>
       <c r="H219" s="110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="229"/>
+      <c r="A220" s="245"/>
       <c r="B220" s="106" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C220" s="107"/>
       <c r="D220" s="108">
@@ -7807,18 +7834,18 @@
         <v>2</v>
       </c>
       <c r="F220" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="G220" s="109"/>
       <c r="H220" s="110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A221" s="229"/>
+      <c r="A221" s="245"/>
       <c r="B221" s="106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C221" s="107"/>
       <c r="D221" s="108">
@@ -7828,18 +7855,18 @@
         <v>2</v>
       </c>
       <c r="F221" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.98</v>
       </c>
       <c r="G221" s="109"/>
       <c r="H221" s="110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222" s="229"/>
+      <c r="A222" s="245"/>
       <c r="B222" s="106" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C222" s="107"/>
       <c r="D222" s="108">
@@ -7849,18 +7876,18 @@
         <v>1</v>
       </c>
       <c r="F222" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="G222" s="109"/>
       <c r="H222" s="110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A223" s="229"/>
+      <c r="A223" s="245"/>
       <c r="B223" s="106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C223" s="107"/>
       <c r="D223" s="108">
@@ -7870,18 +7897,18 @@
         <v>1</v>
       </c>
       <c r="F223" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="G223" s="109"/>
       <c r="H223" s="110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" s="229"/>
+      <c r="A224" s="245"/>
       <c r="B224" s="106" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C224" s="107"/>
       <c r="D224" s="108">
@@ -7891,18 +7918,18 @@
         <v>1</v>
       </c>
       <c r="F224" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="G224" s="109"/>
       <c r="H224" s="110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A225" s="229"/>
+      <c r="A225" s="245"/>
       <c r="B225" s="106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C225" s="107"/>
       <c r="D225" s="108">
@@ -7912,18 +7939,18 @@
         <v>1</v>
       </c>
       <c r="F225" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.23</v>
       </c>
       <c r="G225" s="109"/>
       <c r="H225" s="141" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226" s="229"/>
+      <c r="A226" s="245"/>
       <c r="B226" s="106" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C226" s="107"/>
       <c r="D226" s="108">
@@ -7933,18 +7960,18 @@
         <v>1</v>
       </c>
       <c r="F226" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.53</v>
       </c>
       <c r="G226" s="109"/>
       <c r="H226" s="110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A227" s="229"/>
+      <c r="A227" s="245"/>
       <c r="B227" s="106" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C227" s="107"/>
       <c r="D227" s="108">
@@ -7954,18 +7981,18 @@
         <v>1</v>
       </c>
       <c r="F227" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.26</v>
       </c>
       <c r="G227" s="109"/>
       <c r="H227" s="151" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A228" s="229"/>
+      <c r="A228" s="245"/>
       <c r="B228" s="106" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C228" s="107"/>
       <c r="D228" s="108">
@@ -7975,18 +8002,18 @@
         <v>2</v>
       </c>
       <c r="F228" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.880000000000003</v>
       </c>
       <c r="G228" s="109"/>
       <c r="H228" s="110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A229" s="229"/>
+      <c r="A229" s="245"/>
       <c r="B229" s="106" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C229" s="107"/>
       <c r="D229" s="108">
@@ -7996,18 +8023,18 @@
         <v>5</v>
       </c>
       <c r="F229" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.45</v>
       </c>
       <c r="G229" s="109"/>
       <c r="H229" s="110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230" s="229"/>
+      <c r="A230" s="245"/>
       <c r="B230" s="106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C230" s="107"/>
       <c r="D230" s="108">
@@ -8017,18 +8044,18 @@
         <v>25</v>
       </c>
       <c r="F230" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8449999999999998</v>
       </c>
       <c r="G230" s="109"/>
       <c r="H230" s="110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A231" s="229"/>
+      <c r="A231" s="245"/>
       <c r="B231" s="106" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C231" s="107"/>
       <c r="D231" s="108">
@@ -8038,18 +8065,18 @@
         <v>5</v>
       </c>
       <c r="F231" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.9</v>
       </c>
       <c r="G231" s="109"/>
       <c r="H231" s="110" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A232" s="229"/>
+      <c r="A232" s="245"/>
       <c r="B232" s="106" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C232" s="107"/>
       <c r="D232" s="108">
@@ -8059,18 +8086,18 @@
         <v>5</v>
       </c>
       <c r="F232" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9499999999999997</v>
       </c>
       <c r="G232" s="109"/>
       <c r="H232" s="110" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A233" s="229"/>
+      <c r="A233" s="245"/>
       <c r="B233" s="106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C233" s="107"/>
       <c r="D233" s="108">
@@ -8080,21 +8107,21 @@
         <v>10</v>
       </c>
       <c r="F233" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.52</v>
       </c>
       <c r="G233" s="109"/>
       <c r="H233" s="110" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A234" s="229"/>
+      <c r="A234" s="245"/>
       <c r="B234" s="106" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C234" s="107" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D234" s="108">
         <v>20.170000000000002</v>
@@ -8103,21 +8130,21 @@
         <v>1</v>
       </c>
       <c r="F234" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.170000000000002</v>
       </c>
       <c r="G234" s="109"/>
       <c r="H234" s="110" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A235" s="229"/>
+      <c r="A235" s="245"/>
       <c r="B235" s="106" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C235" s="107" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D235" s="108">
         <v>20.350000000000001</v>
@@ -8126,21 +8153,21 @@
         <v>1</v>
       </c>
       <c r="F235" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.350000000000001</v>
       </c>
       <c r="G235" s="109"/>
       <c r="H235" s="110" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A236" s="229"/>
+      <c r="A236" s="245"/>
       <c r="B236" s="97" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C236" s="107" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D236" s="99">
         <v>20.18</v>
@@ -8149,21 +8176,21 @@
         <v>1</v>
       </c>
       <c r="F236" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.18</v>
       </c>
       <c r="G236" s="100"/>
       <c r="H236" s="101" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A237" s="229"/>
+      <c r="A237" s="245"/>
       <c r="B237" s="97" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C237" s="107" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D237" s="99">
         <v>12.03</v>
@@ -8172,21 +8199,21 @@
         <v>1</v>
       </c>
       <c r="F237" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.03</v>
       </c>
       <c r="G237" s="100"/>
       <c r="H237" s="101" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A238" s="229"/>
+      <c r="A238" s="245"/>
       <c r="B238" s="97" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C238" s="107" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D238" s="99">
         <v>18.75</v>
@@ -8195,21 +8222,21 @@
         <v>1</v>
       </c>
       <c r="F238" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.75</v>
       </c>
       <c r="G238" s="100"/>
       <c r="H238" s="149" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A239" s="229"/>
+      <c r="A239" s="245"/>
       <c r="B239" s="97" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C239" s="107" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D239" s="99">
         <v>0.82</v>
@@ -8218,21 +8245,21 @@
         <v>2</v>
       </c>
       <c r="F239" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.64</v>
       </c>
       <c r="G239" s="100"/>
       <c r="H239" s="101" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A240" s="229"/>
+      <c r="A240" s="245"/>
       <c r="B240" s="97" t="s">
-        <v>579</v>
-      </c>
-      <c r="C240" s="107" t="s">
-        <v>556</v>
+        <v>570</v>
+      </c>
+      <c r="C240" s="185" t="s">
+        <v>547</v>
       </c>
       <c r="D240" s="99">
         <v>13.1</v>
@@ -8241,21 +8268,21 @@
         <v>1</v>
       </c>
       <c r="F240" s="108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.1</v>
       </c>
       <c r="G240" s="100"/>
       <c r="H240" s="101" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A241" s="229"/>
+      <c r="A241" s="245"/>
       <c r="B241" s="97" t="s">
-        <v>401</v>
-      </c>
-      <c r="C241" s="98" t="s">
-        <v>227</v>
+        <v>598</v>
+      </c>
+      <c r="C241" s="185" t="s">
+        <v>225</v>
       </c>
       <c r="D241" s="99">
         <v>276.41000000000003</v>
@@ -8264,16 +8291,16 @@
         <v>1</v>
       </c>
       <c r="F241" s="99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>276.41000000000003</v>
       </c>
       <c r="G241" s="100"/>
       <c r="H241" s="101" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A242" s="229"/>
+      <c r="A242" s="245"/>
       <c r="B242" s="84"/>
       <c r="C242" s="85"/>
       <c r="D242" s="86"/>
@@ -8283,9 +8310,9 @@
       <c r="H242" s="88"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A243" s="229"/>
+      <c r="A243" s="245"/>
       <c r="B243" s="106" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C243" s="107"/>
       <c r="D243" s="108">
@@ -8295,18 +8322,18 @@
         <v>1</v>
       </c>
       <c r="F243" s="108">
-        <f t="shared" ref="F243:F250" si="10">D243*E243</f>
+        <f t="shared" ref="F243:F250" si="11">D243*E243</f>
         <v>18.399999999999999</v>
       </c>
       <c r="G243" s="109"/>
       <c r="H243" s="135" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A244" s="229"/>
+      <c r="A244" s="245"/>
       <c r="B244" s="106" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C244" s="107"/>
       <c r="D244" s="108">
@@ -8316,18 +8343,18 @@
         <v>1</v>
       </c>
       <c r="F244" s="108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.96</v>
       </c>
       <c r="G244" s="109"/>
       <c r="H244" s="135" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A245" s="229"/>
+      <c r="A245" s="245"/>
       <c r="B245" s="106" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C245" s="107"/>
       <c r="D245" s="108">
@@ -8337,18 +8364,18 @@
         <v>1</v>
       </c>
       <c r="F245" s="108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18.48</v>
       </c>
       <c r="G245" s="109"/>
       <c r="H245" s="135" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A246" s="229"/>
+      <c r="A246" s="245"/>
       <c r="B246" s="106" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C246" s="107"/>
       <c r="D246" s="108">
@@ -8358,18 +8385,18 @@
         <v>1</v>
       </c>
       <c r="F246" s="108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.86</v>
       </c>
       <c r="G246" s="109"/>
       <c r="H246" s="135" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A247" s="229"/>
+      <c r="A247" s="245"/>
       <c r="B247" s="97" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C247" s="98"/>
       <c r="D247" s="99">
@@ -8379,18 +8406,18 @@
         <v>3</v>
       </c>
       <c r="F247" s="99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24.630000000000003</v>
       </c>
       <c r="G247" s="100"/>
       <c r="H247" s="122" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A248" s="229"/>
+      <c r="A248" s="245"/>
       <c r="B248" s="116" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C248" s="117"/>
       <c r="D248" s="118">
@@ -8400,18 +8427,18 @@
         <v>1</v>
       </c>
       <c r="F248" s="118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.26</v>
       </c>
       <c r="G248" s="119"/>
       <c r="H248" s="142" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A249" s="229"/>
+      <c r="A249" s="245"/>
       <c r="B249" s="116" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C249" s="117"/>
       <c r="D249" s="118">
@@ -8421,18 +8448,18 @@
         <v>1</v>
       </c>
       <c r="F249" s="118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.69</v>
       </c>
       <c r="G249" s="119"/>
       <c r="H249" s="142" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A250" s="229"/>
+      <c r="A250" s="245"/>
       <c r="B250" s="116" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C250" s="117"/>
       <c r="D250" s="118">
@@ -8442,16 +8469,16 @@
         <v>2</v>
       </c>
       <c r="F250" s="118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.98</v>
       </c>
       <c r="G250" s="119"/>
       <c r="H250" s="142" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A251" s="229"/>
+      <c r="A251" s="245"/>
       <c r="B251" s="84"/>
       <c r="C251" s="85"/>
       <c r="D251" s="86"/>
@@ -8461,9 +8488,9 @@
       <c r="H251" s="88"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A252" s="229"/>
+      <c r="A252" s="245"/>
       <c r="B252" s="106" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C252" s="107"/>
       <c r="D252" s="108">
@@ -8473,7 +8500,7 @@
         <v>2</v>
       </c>
       <c r="F252" s="108">
-        <f t="shared" ref="F252:F257" si="11">D252*E252</f>
+        <f t="shared" ref="F252:F257" si="12">D252*E252</f>
         <v>2.16</v>
       </c>
       <c r="G252" s="109"/>
@@ -8483,9 +8510,9 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A253" s="229"/>
+      <c r="A253" s="245"/>
       <c r="B253" s="106" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C253" s="107"/>
       <c r="D253" s="108">
@@ -8495,18 +8522,18 @@
         <v>2</v>
       </c>
       <c r="F253" s="108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.48</v>
       </c>
       <c r="G253" s="109"/>
       <c r="H253" s="135" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A254" s="229"/>
+      <c r="A254" s="245"/>
       <c r="B254" s="106" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C254" s="107"/>
       <c r="D254" s="108">
@@ -8521,13 +8548,13 @@
       </c>
       <c r="G254" s="109"/>
       <c r="H254" s="135" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A255" s="229"/>
+      <c r="A255" s="245"/>
       <c r="B255" s="106" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C255" s="107"/>
       <c r="D255" s="108">
@@ -8542,13 +8569,13 @@
       </c>
       <c r="G255" s="109"/>
       <c r="H255" s="135" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A256" s="229"/>
+      <c r="A256" s="245"/>
       <c r="B256" s="106" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C256" s="107"/>
       <c r="D256" s="108">
@@ -8563,13 +8590,13 @@
       </c>
       <c r="G256" s="109"/>
       <c r="H256" s="135" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A257" s="229"/>
+      <c r="A257" s="245"/>
       <c r="B257" s="106" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C257" s="107"/>
       <c r="D257" s="108">
@@ -8579,18 +8606,18 @@
         <v>1</v>
       </c>
       <c r="F257" s="108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.78</v>
       </c>
       <c r="G257" s="109"/>
       <c r="H257" s="135" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A258" s="229"/>
+      <c r="A258" s="245"/>
       <c r="B258" s="106" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C258" s="107"/>
       <c r="D258" s="108">
@@ -8610,7 +8637,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A259" s="229"/>
+      <c r="A259" s="245"/>
       <c r="B259" s="106"/>
       <c r="C259" s="107"/>
       <c r="D259" s="108"/>
@@ -8638,7 +8665,7 @@
       <c r="F261" s="50"/>
       <c r="G261" s="37">
         <f>SUM(F182:F260)</f>
-        <v>2999.3190000000013</v>
+        <v>3012.6690000000012</v>
       </c>
       <c r="H261" s="38"/>
     </row>
@@ -8663,18 +8690,18 @@
       <c r="H263" s="39"/>
     </row>
     <row r="264" spans="1:8" ht="26" x14ac:dyDescent="0.6">
-      <c r="A264" s="235" t="s">
-        <v>239</v>
-      </c>
-      <c r="B264" s="236"/>
+      <c r="A264" s="226" t="s">
+        <v>237</v>
+      </c>
+      <c r="B264" s="227"/>
       <c r="C264" s="201"/>
       <c r="D264" s="202"/>
       <c r="E264" s="201"/>
-      <c r="F264" s="245">
+      <c r="F264" s="236">
         <f>SUM(G19:G261)</f>
-        <v>14504.598999999997</v>
-      </c>
-      <c r="G264" s="246"/>
+        <v>14418.958999999999</v>
+      </c>
+      <c r="G264" s="237"/>
       <c r="H264" s="39"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
@@ -8718,38 +8745,38 @@
       <c r="H268" s="39"/>
     </row>
     <row r="269" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="237"/>
-      <c r="B269" s="238"/>
-      <c r="C269" s="238"/>
-      <c r="D269" s="238"/>
-      <c r="E269" s="238"/>
-      <c r="F269" s="238"/>
-      <c r="G269" s="238"/>
-      <c r="H269" s="239"/>
+      <c r="A269" s="228"/>
+      <c r="B269" s="229"/>
+      <c r="C269" s="229"/>
+      <c r="D269" s="229"/>
+      <c r="E269" s="229"/>
+      <c r="F269" s="229"/>
+      <c r="G269" s="229"/>
+      <c r="H269" s="230"/>
     </row>
     <row r="270" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A270" s="240" t="s">
-        <v>493</v>
-      </c>
-      <c r="B270" s="241"/>
-      <c r="C270" s="241"/>
-      <c r="D270" s="241"/>
-      <c r="E270" s="241"/>
-      <c r="F270" s="241"/>
-      <c r="G270" s="241"/>
-      <c r="H270" s="242"/>
+      <c r="A270" s="231" t="s">
+        <v>488</v>
+      </c>
+      <c r="B270" s="232"/>
+      <c r="C270" s="232"/>
+      <c r="D270" s="232"/>
+      <c r="E270" s="232"/>
+      <c r="F270" s="232"/>
+      <c r="G270" s="232"/>
+      <c r="H270" s="233"/>
     </row>
     <row r="271" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A271" s="247" t="s">
-        <v>537</v>
-      </c>
-      <c r="B271" s="248"/>
-      <c r="C271" s="248"/>
-      <c r="D271" s="248"/>
-      <c r="E271" s="248"/>
-      <c r="F271" s="248"/>
-      <c r="G271" s="248"/>
-      <c r="H271" s="249"/>
+      <c r="A271" s="238" t="s">
+        <v>528</v>
+      </c>
+      <c r="B271" s="239"/>
+      <c r="C271" s="239"/>
+      <c r="D271" s="239"/>
+      <c r="E271" s="239"/>
+      <c r="F271" s="239"/>
+      <c r="G271" s="239"/>
+      <c r="H271" s="240"/>
     </row>
     <row r="272" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A272" s="49"/>
@@ -8772,14 +8799,14 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A273" s="243" t="s">
-        <v>473</v>
+      <c r="A273" s="234" t="s">
+        <v>469</v>
       </c>
       <c r="B273" s="184" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C273" s="185" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D273" s="186">
         <v>1068</v>
@@ -8793,11 +8820,11 @@
       </c>
       <c r="G273" s="187"/>
       <c r="H273" s="152" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A274" s="243"/>
+      <c r="A274" s="234"/>
       <c r="B274" s="28"/>
       <c r="C274" s="29"/>
       <c r="D274" s="52"/>
@@ -8807,9 +8834,9 @@
       <c r="H274" s="55"/>
     </row>
     <row r="275" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A275" s="243"/>
+      <c r="A275" s="234"/>
       <c r="B275" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C275" s="29"/>
       <c r="D275" s="52">
@@ -8824,11 +8851,11 @@
       </c>
       <c r="G275" s="54"/>
       <c r="H275" s="55" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A276" s="243"/>
+      <c r="A276" s="234"/>
       <c r="B276" s="28"/>
       <c r="C276" s="29"/>
       <c r="D276" s="52"/>
@@ -8838,9 +8865,9 @@
       <c r="H276" s="55"/>
     </row>
     <row r="277" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A277" s="243"/>
+      <c r="A277" s="234"/>
       <c r="B277" s="28" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C277" s="29"/>
       <c r="D277" s="52">
@@ -8850,18 +8877,18 @@
         <v>1</v>
       </c>
       <c r="F277" s="52">
-        <f t="shared" ref="F277:F291" si="12">D277*E277</f>
+        <f t="shared" ref="F277:F291" si="13">D277*E277</f>
         <v>49.99</v>
       </c>
       <c r="G277" s="54"/>
       <c r="H277" s="55" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A278" s="243"/>
+      <c r="A278" s="234"/>
       <c r="B278" s="191" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C278" s="192"/>
       <c r="D278" s="193">
@@ -8871,16 +8898,16 @@
         <v>1</v>
       </c>
       <c r="F278" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.59</v>
       </c>
       <c r="G278" s="195"/>
       <c r="H278" s="196" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A279" s="243"/>
+      <c r="A279" s="234"/>
       <c r="B279" s="28"/>
       <c r="C279" s="29"/>
       <c r="D279" s="52"/>
@@ -8890,9 +8917,9 @@
       <c r="H279" s="55"/>
     </row>
     <row r="280" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="243"/>
+      <c r="A280" s="234"/>
       <c r="B280" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C280" s="29"/>
       <c r="D280" s="52">
@@ -8902,18 +8929,18 @@
         <v>1</v>
       </c>
       <c r="F280" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.49</v>
       </c>
       <c r="G280" s="54"/>
       <c r="H280" s="152" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A281" s="243"/>
+      <c r="A281" s="234"/>
       <c r="B281" s="28" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C281" s="29"/>
       <c r="D281" s="52">
@@ -8923,18 +8950,18 @@
         <v>1</v>
       </c>
       <c r="F281" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.9700000000000006</v>
       </c>
       <c r="G281" s="54"/>
       <c r="H281" s="55" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A282" s="243"/>
+      <c r="A282" s="234"/>
       <c r="B282" s="191" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C282" s="192"/>
       <c r="D282" s="193">
@@ -8944,16 +8971,16 @@
         <v>1</v>
       </c>
       <c r="F282" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.989999999999998</v>
       </c>
       <c r="G282" s="195"/>
       <c r="H282" s="196" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A283" s="243"/>
+      <c r="A283" s="234"/>
       <c r="B283" s="28"/>
       <c r="C283" s="29"/>
       <c r="D283" s="52"/>
@@ -8963,12 +8990,12 @@
       <c r="H283" s="55"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A284" s="243"/>
+      <c r="A284" s="234"/>
       <c r="B284" s="198" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C284" s="185" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D284" s="186">
         <v>3000</v>
@@ -8977,21 +9004,21 @@
         <v>1</v>
       </c>
       <c r="F284" s="186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3000</v>
       </c>
       <c r="G284" s="187"/>
       <c r="H284" s="152" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A285" s="243"/>
+      <c r="A285" s="234"/>
       <c r="B285" s="198" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C285" s="185" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D285" s="186">
         <v>2500</v>
@@ -9000,86 +9027,86 @@
         <v>1</v>
       </c>
       <c r="F285" s="186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2500</v>
       </c>
       <c r="G285" s="187"/>
       <c r="H285" s="190" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A286" s="243"/>
+      <c r="A286" s="234"/>
       <c r="B286" s="198" t="s">
-        <v>599</v>
-      </c>
-      <c r="C286" s="250" t="s">
-        <v>593</v>
-      </c>
-      <c r="D286" s="251"/>
-      <c r="E286" s="250">
+        <v>590</v>
+      </c>
+      <c r="C286" s="219" t="s">
+        <v>584</v>
+      </c>
+      <c r="D286" s="220"/>
+      <c r="E286" s="219">
         <v>1</v>
       </c>
       <c r="F286" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G286" s="252"/>
-      <c r="H286" s="253" t="s">
-        <v>591</v>
+      <c r="G286" s="221"/>
+      <c r="H286" s="222" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A287" s="243"/>
+      <c r="A287" s="234"/>
       <c r="B287" s="198" t="s">
-        <v>597</v>
-      </c>
-      <c r="C287" s="250" t="s">
-        <v>592</v>
-      </c>
-      <c r="D287" s="251">
+        <v>588</v>
+      </c>
+      <c r="C287" s="219" t="s">
+        <v>583</v>
+      </c>
+      <c r="D287" s="220">
         <v>34.99</v>
       </c>
-      <c r="E287" s="250">
+      <c r="E287" s="219">
         <v>1</v>
       </c>
       <c r="F287" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>34.99</v>
       </c>
-      <c r="G287" s="252"/>
-      <c r="H287" s="253" t="s">
-        <v>596</v>
+      <c r="G287" s="221"/>
+      <c r="H287" s="222" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A288" s="243"/>
+      <c r="A288" s="234"/>
       <c r="B288" s="198" t="s">
-        <v>598</v>
-      </c>
-      <c r="C288" s="250" t="s">
-        <v>594</v>
-      </c>
-      <c r="D288" s="251"/>
-      <c r="E288" s="250">
+        <v>589</v>
+      </c>
+      <c r="C288" s="219" t="s">
+        <v>585</v>
+      </c>
+      <c r="D288" s="220"/>
+      <c r="E288" s="219">
         <v>1</v>
       </c>
       <c r="F288" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G288" s="252"/>
-      <c r="H288" s="253" t="s">
-        <v>596</v>
+      <c r="G288" s="221"/>
+      <c r="H288" s="222" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A289" s="243"/>
+      <c r="A289" s="234"/>
       <c r="B289" s="191" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C289" s="192" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D289" s="193">
         <v>990</v>
@@ -9088,21 +9115,21 @@
         <v>1</v>
       </c>
       <c r="F289" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>990</v>
       </c>
       <c r="G289" s="195"/>
       <c r="H289" s="196" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A290" s="243"/>
+      <c r="A290" s="234"/>
       <c r="B290" s="191" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C290" s="192" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D290" s="193">
         <v>360</v>
@@ -9111,21 +9138,21 @@
         <v>1</v>
       </c>
       <c r="F290" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>360</v>
       </c>
       <c r="G290" s="195"/>
       <c r="H290" s="196" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A291" s="243"/>
+      <c r="A291" s="234"/>
       <c r="B291" s="191" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C291" s="192" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D291" s="193">
         <v>65</v>
@@ -9134,16 +9161,16 @@
         <v>1</v>
       </c>
       <c r="F291" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="G291" s="195"/>
       <c r="H291" s="197" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A292" s="243"/>
+      <c r="A292" s="234"/>
       <c r="B292" s="33"/>
       <c r="C292" s="33"/>
       <c r="D292" s="57"/>
@@ -9153,13 +9180,13 @@
       <c r="H292" s="60"/>
     </row>
     <row r="293" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A293" s="243"/>
+      <c r="A293" s="234"/>
       <c r="B293" s="36"/>
       <c r="C293" s="36"/>
       <c r="D293" s="61"/>
       <c r="E293" s="62"/>
       <c r="F293" s="63" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G293" s="64">
         <f>SUM(F273:F291)</f>
@@ -9178,11 +9205,11 @@
       <c r="H294" s="67"/>
     </row>
     <row r="295" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="243" t="s">
-        <v>254</v>
+      <c r="A295" s="234" t="s">
+        <v>251</v>
       </c>
       <c r="B295" s="69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C295" s="70"/>
       <c r="D295" s="31">
@@ -9192,18 +9219,18 @@
         <v>1</v>
       </c>
       <c r="F295" s="31">
-        <f t="shared" ref="F295" si="13">D295*E295</f>
+        <f t="shared" ref="F295" si="14">D295*E295</f>
         <v>107.47</v>
       </c>
       <c r="G295" s="70"/>
       <c r="H295" s="71" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A296" s="243"/>
+      <c r="A296" s="234"/>
       <c r="B296" s="69" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C296" s="70"/>
       <c r="D296" s="31">
@@ -9213,18 +9240,18 @@
         <v>1</v>
       </c>
       <c r="F296" s="31">
-        <f t="shared" ref="F296:F305" si="14">D296*E296</f>
+        <f t="shared" ref="F296:F305" si="15">D296*E296</f>
         <v>5.67</v>
       </c>
       <c r="G296" s="72"/>
       <c r="H296" s="71" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A297" s="243"/>
+      <c r="A297" s="234"/>
       <c r="B297" s="69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C297" s="70"/>
       <c r="D297" s="31">
@@ -9234,18 +9261,18 @@
         <v>1</v>
       </c>
       <c r="F297" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.67</v>
       </c>
       <c r="G297" s="72"/>
       <c r="H297" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A298" s="243"/>
+      <c r="A298" s="234"/>
       <c r="B298" s="69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C298" s="70"/>
       <c r="D298" s="31">
@@ -9255,18 +9282,18 @@
         <v>2</v>
       </c>
       <c r="F298" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.94</v>
       </c>
       <c r="G298" s="72"/>
       <c r="H298" s="71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A299" s="243"/>
+      <c r="A299" s="234"/>
       <c r="B299" s="69" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C299" s="70"/>
       <c r="D299" s="31">
@@ -9276,18 +9303,18 @@
         <v>1</v>
       </c>
       <c r="F299" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>34.950000000000003</v>
       </c>
       <c r="G299" s="72"/>
       <c r="H299" s="71" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A300" s="243"/>
+      <c r="A300" s="234"/>
       <c r="B300" s="69" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C300" s="70"/>
       <c r="D300" s="31">
@@ -9297,18 +9324,18 @@
         <v>1</v>
       </c>
       <c r="F300" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.95</v>
       </c>
       <c r="G300" s="72"/>
       <c r="H300" s="71" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A301" s="243"/>
+      <c r="A301" s="234"/>
       <c r="B301" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C301" s="70"/>
       <c r="D301" s="31">
@@ -9318,18 +9345,18 @@
         <v>1</v>
       </c>
       <c r="F301" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.95</v>
       </c>
       <c r="G301" s="72"/>
       <c r="H301" s="71" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A302" s="243"/>
+      <c r="A302" s="234"/>
       <c r="B302" s="69" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C302" s="70"/>
       <c r="D302" s="31">
@@ -9339,18 +9366,18 @@
         <v>1</v>
       </c>
       <c r="F302" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.95</v>
       </c>
       <c r="G302" s="72"/>
       <c r="H302" s="71" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A303" s="243"/>
+      <c r="A303" s="234"/>
       <c r="B303" s="69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C303" s="70"/>
       <c r="D303" s="31">
@@ -9360,18 +9387,18 @@
         <v>1</v>
       </c>
       <c r="F303" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.99</v>
       </c>
       <c r="G303" s="72"/>
       <c r="H303" s="71" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A304" s="243"/>
+      <c r="A304" s="234"/>
       <c r="B304" s="69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C304" s="70"/>
       <c r="D304" s="31">
@@ -9381,18 +9408,18 @@
         <v>1</v>
       </c>
       <c r="F304" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.99</v>
       </c>
       <c r="G304" s="72"/>
       <c r="H304" s="71" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A305" s="243"/>
+      <c r="A305" s="234"/>
       <c r="B305" s="69" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C305" s="70"/>
       <c r="D305" s="31">
@@ -9402,16 +9429,16 @@
         <v>1</v>
       </c>
       <c r="F305" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.87</v>
       </c>
       <c r="G305" s="72"/>
       <c r="H305" s="71" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A306" s="243"/>
+      <c r="A306" s="234"/>
       <c r="B306" s="167"/>
       <c r="C306" s="168"/>
       <c r="D306" s="169"/>
@@ -9421,9 +9448,9 @@
       <c r="H306" s="171"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A307" s="244"/>
+      <c r="A307" s="235"/>
       <c r="B307" s="162" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C307" s="163"/>
       <c r="D307" s="31">
@@ -9433,18 +9460,18 @@
         <v>1</v>
       </c>
       <c r="F307" s="91">
-        <f t="shared" ref="F307:F333" si="15">D307*E307</f>
+        <f t="shared" ref="F307:F333" si="16">D307*E307</f>
         <v>65.59</v>
       </c>
       <c r="G307" s="163"/>
       <c r="H307" s="165" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A308" s="243"/>
+      <c r="A308" s="234"/>
       <c r="B308" s="172" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C308" s="173"/>
       <c r="D308" s="153">
@@ -9454,18 +9481,18 @@
         <v>1</v>
       </c>
       <c r="F308" s="153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.69</v>
       </c>
       <c r="G308" s="174"/>
       <c r="H308" s="175" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A309" s="243"/>
+      <c r="A309" s="234"/>
       <c r="B309" s="69" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C309" s="70"/>
       <c r="D309" s="31">
@@ -9475,18 +9502,18 @@
         <v>1</v>
       </c>
       <c r="F309" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.29</v>
       </c>
       <c r="G309" s="72"/>
       <c r="H309" s="71" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A310" s="243"/>
+      <c r="A310" s="234"/>
       <c r="B310" s="69" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C310" s="70"/>
       <c r="D310" s="31">
@@ -9496,18 +9523,18 @@
         <v>1</v>
       </c>
       <c r="F310" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.96</v>
       </c>
       <c r="G310" s="72"/>
       <c r="H310" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A311" s="243"/>
+      <c r="A311" s="234"/>
       <c r="B311" s="69" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C311" s="70"/>
       <c r="D311" s="31">
@@ -9517,18 +9544,18 @@
         <v>1</v>
       </c>
       <c r="F311" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.44</v>
       </c>
       <c r="G311" s="72"/>
       <c r="H311" s="71" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A312" s="243"/>
+      <c r="A312" s="234"/>
       <c r="B312" s="69" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C312" s="70"/>
       <c r="D312" s="31">
@@ -9538,18 +9565,18 @@
         <v>1</v>
       </c>
       <c r="F312" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.27</v>
       </c>
       <c r="G312" s="72"/>
       <c r="H312" s="71" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A313" s="243"/>
+      <c r="A313" s="234"/>
       <c r="B313" s="69" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C313" s="70"/>
       <c r="D313" s="31">
@@ -9559,18 +9586,18 @@
         <v>1</v>
       </c>
       <c r="F313" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.46</v>
       </c>
       <c r="G313" s="72"/>
       <c r="H313" s="71" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A314" s="243"/>
+      <c r="A314" s="234"/>
       <c r="B314" s="69" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C314" s="70"/>
       <c r="D314" s="31">
@@ -9580,18 +9607,18 @@
         <v>1</v>
       </c>
       <c r="F314" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.64</v>
       </c>
       <c r="G314" s="72"/>
       <c r="H314" s="71" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A315" s="243"/>
+      <c r="A315" s="234"/>
       <c r="B315" s="69" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C315" s="70"/>
       <c r="D315" s="31">
@@ -9601,18 +9628,18 @@
         <v>1</v>
       </c>
       <c r="F315" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.48</v>
       </c>
       <c r="G315" s="72"/>
       <c r="H315" s="71" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A316" s="243"/>
+      <c r="A316" s="234"/>
       <c r="B316" s="69" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C316" s="70"/>
       <c r="D316" s="31">
@@ -9622,18 +9649,18 @@
         <v>1</v>
       </c>
       <c r="F316" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="G316" s="72"/>
       <c r="H316" s="71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A317" s="243"/>
+      <c r="A317" s="234"/>
       <c r="B317" s="69" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C317" s="70"/>
       <c r="D317" s="31">
@@ -9643,18 +9670,18 @@
         <v>1</v>
       </c>
       <c r="F317" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.649999999999999</v>
       </c>
       <c r="G317" s="72"/>
       <c r="H317" s="71" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A318" s="243"/>
+      <c r="A318" s="234"/>
       <c r="B318" s="69" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C318" s="70"/>
       <c r="D318" s="31">
@@ -9664,18 +9691,18 @@
         <v>1</v>
       </c>
       <c r="F318" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.85</v>
       </c>
       <c r="G318" s="72"/>
       <c r="H318" s="71" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A319" s="243"/>
+      <c r="A319" s="234"/>
       <c r="B319" s="69" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C319" s="70"/>
       <c r="D319" s="31">
@@ -9685,18 +9712,18 @@
         <v>1</v>
       </c>
       <c r="F319" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.84</v>
       </c>
       <c r="G319" s="72"/>
       <c r="H319" s="71" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A320" s="243"/>
+      <c r="A320" s="234"/>
       <c r="B320" s="69" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C320" s="70"/>
       <c r="D320" s="31">
@@ -9706,18 +9733,18 @@
         <v>1</v>
       </c>
       <c r="F320" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.5</v>
       </c>
       <c r="G320" s="72"/>
       <c r="H320" s="71" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A321" s="243"/>
+      <c r="A321" s="234"/>
       <c r="B321" s="69" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C321" s="70"/>
       <c r="D321" s="31">
@@ -9727,18 +9754,18 @@
         <v>1</v>
       </c>
       <c r="F321" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19.64</v>
       </c>
       <c r="G321" s="70"/>
       <c r="H321" s="71" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A322" s="243"/>
+      <c r="A322" s="234"/>
       <c r="B322" s="69" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C322" s="70"/>
       <c r="D322" s="31">
@@ -9748,18 +9775,18 @@
         <v>1</v>
       </c>
       <c r="F322" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.47</v>
       </c>
       <c r="G322" s="70"/>
       <c r="H322" s="71" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A323" s="243"/>
+      <c r="A323" s="234"/>
       <c r="B323" s="69" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C323" s="70"/>
       <c r="D323" s="31">
@@ -9769,18 +9796,18 @@
         <v>1</v>
       </c>
       <c r="F323" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16.48</v>
       </c>
       <c r="G323" s="70"/>
       <c r="H323" s="71" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A324" s="243"/>
+      <c r="A324" s="234"/>
       <c r="B324" s="69" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C324" s="70"/>
       <c r="D324" s="31">
@@ -9790,18 +9817,18 @@
         <v>1</v>
       </c>
       <c r="F324" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.29</v>
       </c>
       <c r="G324" s="70"/>
       <c r="H324" s="71" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A325" s="243"/>
+      <c r="A325" s="234"/>
       <c r="B325" s="69" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C325" s="70"/>
       <c r="D325" s="31">
@@ -9811,18 +9838,18 @@
         <v>1</v>
       </c>
       <c r="F325" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.34</v>
       </c>
       <c r="G325" s="70"/>
       <c r="H325" s="71" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A326" s="243"/>
+      <c r="A326" s="234"/>
       <c r="B326" s="69" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C326" s="70"/>
       <c r="D326" s="31">
@@ -9832,18 +9859,18 @@
         <v>1</v>
       </c>
       <c r="F326" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.45</v>
       </c>
       <c r="G326" s="70"/>
       <c r="H326" s="71" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A327" s="243"/>
+      <c r="A327" s="234"/>
       <c r="B327" s="69" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C327" s="70"/>
       <c r="D327" s="31">
@@ -9853,18 +9880,18 @@
         <v>1</v>
       </c>
       <c r="F327" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.16</v>
       </c>
       <c r="G327" s="70"/>
       <c r="H327" s="71" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A328" s="243"/>
+      <c r="A328" s="234"/>
       <c r="B328" s="69" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C328" s="70"/>
       <c r="D328" s="31">
@@ -9874,18 +9901,18 @@
         <v>1</v>
       </c>
       <c r="F328" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.2</v>
       </c>
       <c r="G328" s="70"/>
       <c r="H328" s="71" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A329" s="243"/>
+      <c r="A329" s="234"/>
       <c r="B329" s="69" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C329" s="70"/>
       <c r="D329" s="31">
@@ -9895,18 +9922,18 @@
         <v>1</v>
       </c>
       <c r="F329" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.44</v>
       </c>
       <c r="G329" s="70"/>
       <c r="H329" s="71" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A330" s="243"/>
+      <c r="A330" s="234"/>
       <c r="B330" s="69" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C330" s="70"/>
       <c r="D330" s="31">
@@ -9916,16 +9943,16 @@
         <v>1</v>
       </c>
       <c r="F330" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.1100000000000003</v>
       </c>
       <c r="G330" s="70"/>
       <c r="H330" s="71" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A331" s="243"/>
+      <c r="A331" s="234"/>
       <c r="B331" s="69"/>
       <c r="C331" s="70"/>
       <c r="D331" s="31"/>
@@ -9935,9 +9962,9 @@
       <c r="H331" s="73"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A332" s="243"/>
+      <c r="A332" s="234"/>
       <c r="B332" s="69" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C332" s="70"/>
       <c r="D332" s="31">
@@ -9947,18 +9974,18 @@
         <v>1</v>
       </c>
       <c r="F332" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39.99</v>
       </c>
       <c r="G332" s="70"/>
       <c r="H332" s="152" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A333" s="243"/>
+      <c r="A333" s="234"/>
       <c r="B333" s="69" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C333" s="70"/>
       <c r="D333" s="31">
@@ -9968,16 +9995,16 @@
         <v>1</v>
       </c>
       <c r="F333" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.99</v>
       </c>
       <c r="G333" s="70"/>
       <c r="H333" s="152" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A334" s="243"/>
+      <c r="A334" s="234"/>
       <c r="B334" s="69"/>
       <c r="C334" s="70"/>
       <c r="D334" s="31"/>
@@ -9987,9 +10014,9 @@
       <c r="H334" s="73"/>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A335" s="243"/>
+      <c r="A335" s="234"/>
       <c r="B335" s="69" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C335" s="70"/>
       <c r="D335" s="31">
@@ -10004,11 +10031,11 @@
       </c>
       <c r="G335" s="70"/>
       <c r="H335" s="71" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A336" s="243"/>
+      <c r="A336" s="234"/>
       <c r="B336" s="69"/>
       <c r="C336" s="70"/>
       <c r="D336" s="31"/>
@@ -10018,9 +10045,9 @@
       <c r="H336" s="71"/>
     </row>
     <row r="337" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="243"/>
+      <c r="A337" s="234"/>
       <c r="B337" s="69" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C337" s="70"/>
       <c r="D337" s="31">
@@ -10030,18 +10057,18 @@
         <v>1</v>
       </c>
       <c r="F337" s="31">
-        <f t="shared" ref="F337:F340" si="16">D337*E337</f>
+        <f t="shared" ref="F337:F340" si="17">D337*E337</f>
         <v>7.33</v>
       </c>
       <c r="G337" s="70"/>
       <c r="H337" s="71" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="243"/>
+      <c r="A338" s="234"/>
       <c r="B338" s="69" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C338" s="70"/>
       <c r="D338" s="31">
@@ -10051,21 +10078,21 @@
         <v>1</v>
       </c>
       <c r="F338" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.7</v>
       </c>
       <c r="G338" s="70"/>
       <c r="H338" s="71" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A339" s="243"/>
+      <c r="A339" s="234"/>
       <c r="B339" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C339" s="70" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D339" s="31">
         <v>162</v>
@@ -10074,21 +10101,21 @@
         <v>1</v>
       </c>
       <c r="F339" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>162</v>
       </c>
       <c r="G339" s="70"/>
       <c r="H339" s="71" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A340" s="243"/>
+      <c r="A340" s="234"/>
       <c r="B340" s="28" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C340" s="29" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D340" s="30">
         <v>24.85</v>
@@ -10097,18 +10124,18 @@
         <v>1</v>
       </c>
       <c r="F340" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>24.85</v>
       </c>
       <c r="G340" s="29"/>
       <c r="H340" s="149" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A341" s="243"/>
+      <c r="A341" s="234"/>
       <c r="B341" s="28" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C341" s="29"/>
       <c r="D341" s="30">
@@ -10122,11 +10149,11 @@
       </c>
       <c r="G341" s="29"/>
       <c r="H341" s="149" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A342" s="243"/>
+      <c r="A342" s="234"/>
       <c r="B342" s="33"/>
       <c r="C342" s="33"/>
       <c r="D342" s="34"/>
@@ -10136,13 +10163,13 @@
       <c r="H342" s="42"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A343" s="243"/>
+      <c r="A343" s="234"/>
       <c r="B343" s="36"/>
       <c r="C343" s="36"/>
       <c r="D343" s="36"/>
       <c r="E343" s="36"/>
       <c r="F343" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G343" s="200">
         <f>SUM(F295:F341)</f>
@@ -10152,6 +10179,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A19:A125"/>
+    <mergeCell ref="A127:A179"/>
+    <mergeCell ref="A182:A259"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="A264:B264"/>
     <mergeCell ref="A269:H269"/>
     <mergeCell ref="A270:H270"/>
@@ -10159,19 +10199,6 @@
     <mergeCell ref="A295:A343"/>
     <mergeCell ref="F264:G264"/>
     <mergeCell ref="A271:H271"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A19:A126"/>
-    <mergeCell ref="A128:A179"/>
-    <mergeCell ref="A182:A259"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H25" r:id="rId1"/>
@@ -10179,29 +10206,29 @@
     <hyperlink ref="H34" r:id="rId3"/>
     <hyperlink ref="H35" r:id="rId4"/>
     <hyperlink ref="H46" r:id="rId5"/>
-    <hyperlink ref="H72" r:id="rId6" location="92290a474/=120dvtd"/>
-    <hyperlink ref="H73" r:id="rId7" location="91828a005/=120dvjk"/>
-    <hyperlink ref="H74" r:id="rId8" location="95610a530/=120dwf7"/>
-    <hyperlink ref="H77" r:id="rId9" location="90591a250/=120dy5e"/>
-    <hyperlink ref="H81" r:id="rId10" location="91290a113/=120e123"/>
-    <hyperlink ref="H83" r:id="rId11" location="91290a117/=120e45y"/>
-    <hyperlink ref="H84" r:id="rId12" location="91290a120/=120epou"/>
-    <hyperlink ref="H89" r:id="rId13" location="91290a137/=120e644"/>
-    <hyperlink ref="H90" r:id="rId14" location="92185a144/=120dvzz"/>
-    <hyperlink ref="H91" r:id="rId15" location="7840k72/=120duy7"/>
-    <hyperlink ref="H93" r:id="rId16" location="94669a041/=120elfz"/>
-    <hyperlink ref="H94" r:id="rId17" location="90591a255/=120em4k"/>
-    <hyperlink ref="H96" r:id="rId18" location="91290a150/=120enm4"/>
-    <hyperlink ref="H101" r:id="rId19" location="92390a100/=128m34x"/>
-    <hyperlink ref="H103" r:id="rId20" location="8548k23/=128m659"/>
-    <hyperlink ref="H104" r:id="rId21" location="8542k51/=128m6ms"/>
-    <hyperlink ref="H107" r:id="rId22" location="8973k68/=128m88a"/>
-    <hyperlink ref="H109" r:id="rId23" location="7130k52/=120erv8"/>
-    <hyperlink ref="H110" r:id="rId24" location="7130k104/=120evi5"/>
-    <hyperlink ref="H111" r:id="rId25" location="7566k73/=120ew2s"/>
-    <hyperlink ref="H112" r:id="rId26" location="76425a51/=120exoz"/>
-    <hyperlink ref="H113" r:id="rId27" location="76425a51/=120eyab"/>
-    <hyperlink ref="H114" r:id="rId28" location="91458a115/=120e79s"/>
+    <hyperlink ref="H70" r:id="rId6" location="92290a474/=120dvtd"/>
+    <hyperlink ref="H71" r:id="rId7" location="91828a005/=120dvjk"/>
+    <hyperlink ref="H72" r:id="rId8" location="95610a530/=120dwf7"/>
+    <hyperlink ref="H76" r:id="rId9" location="90591a250/=120dy5e"/>
+    <hyperlink ref="H80" r:id="rId10" location="91290a113/=120e123"/>
+    <hyperlink ref="H82" r:id="rId11" location="91290a117/=120e45y"/>
+    <hyperlink ref="H83" r:id="rId12" location="91290a120/=120epou"/>
+    <hyperlink ref="H88" r:id="rId13" location="91290a137/=120e644"/>
+    <hyperlink ref="H89" r:id="rId14" location="92185a144/=120dvzz"/>
+    <hyperlink ref="H90" r:id="rId15" location="7840k72/=120duy7"/>
+    <hyperlink ref="H92" r:id="rId16" location="94669a041/=120elfz"/>
+    <hyperlink ref="H93" r:id="rId17" location="90591a255/=120em4k"/>
+    <hyperlink ref="H95" r:id="rId18" location="91290a150/=120enm4"/>
+    <hyperlink ref="H100" r:id="rId19" location="92390a100/=128m34x"/>
+    <hyperlink ref="H102" r:id="rId20" location="8548k23/=128m659"/>
+    <hyperlink ref="H103" r:id="rId21" location="8542k51/=128m6ms"/>
+    <hyperlink ref="H106" r:id="rId22" location="8973k68/=128m88a"/>
+    <hyperlink ref="H108" r:id="rId23" location="7130k52/=120erv8"/>
+    <hyperlink ref="H109" r:id="rId24" location="7130k104/=120evi5"/>
+    <hyperlink ref="H110" r:id="rId25" location="7566k73/=120ew2s"/>
+    <hyperlink ref="H111" r:id="rId26" location="76425a51/=120exoz"/>
+    <hyperlink ref="H112" r:id="rId27" location="76425a51/=120eyab"/>
+    <hyperlink ref="H113" r:id="rId28" location="91458a115/=120e79s"/>
     <hyperlink ref="H142" r:id="rId29"/>
     <hyperlink ref="H151" r:id="rId30"/>
     <hyperlink ref="H164" r:id="rId31"/>
@@ -10238,7 +10265,7 @@
     <hyperlink ref="H296" r:id="rId62"/>
     <hyperlink ref="H297" r:id="rId63"/>
     <hyperlink ref="H299" r:id="rId64"/>
-    <hyperlink ref="H131" r:id="rId65"/>
+    <hyperlink ref="H130" r:id="rId65"/>
     <hyperlink ref="H196" r:id="rId66"/>
     <hyperlink ref="H238" r:id="rId67"/>
     <hyperlink ref="H185" r:id="rId68"/>
@@ -10253,9 +10280,9 @@
     <hyperlink ref="H171" r:id="rId77"/>
     <hyperlink ref="H146" r:id="rId78"/>
     <hyperlink ref="H145" r:id="rId79"/>
-    <hyperlink ref="H116" r:id="rId80"/>
-    <hyperlink ref="H67" r:id="rId81"/>
-    <hyperlink ref="H56" r:id="rId82"/>
+    <hyperlink ref="H115" r:id="rId80"/>
+    <hyperlink ref="H65" r:id="rId81"/>
+    <hyperlink ref="H54" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId83"/>
